--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\диплом\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47420463-4DD6-411B-9452-6B43CE3F38BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F228D8C-4BD4-4C98-AA0C-7FD0319CC164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -859,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +878,7 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -959,9 +959,8 @@
       <c r="M2" s="3">
         <v>7</v>
       </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1001,9 +1000,8 @@
       <c r="M3" s="4">
         <v>3</v>
       </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -1023,9 +1021,8 @@
       <c r="M4" s="5">
         <v>43</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1065,9 +1062,8 @@
       <c r="M5" s="4">
         <v>22</v>
       </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1107,9 +1103,8 @@
       <c r="M6" s="3">
         <v>3</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1149,9 +1144,8 @@
       <c r="M7" s="4">
         <v>8</v>
       </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1191,9 +1185,8 @@
       <c r="M8" s="3">
         <v>15</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1230,12 +1223,11 @@
       <c r="L9" s="4">
         <v>82</v>
       </c>
-      <c r="M9" s="4">
-        <v>82</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1275,9 +1267,8 @@
       <c r="M10" s="3">
         <v>67</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1317,9 +1308,8 @@
       <c r="M11" s="4">
         <v>413</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1359,9 +1349,8 @@
       <c r="M12" s="3">
         <v>155</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1401,9 +1390,8 @@
       <c r="M13" s="4">
         <v>147</v>
       </c>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1440,12 +1428,11 @@
       <c r="L14" s="3">
         <v>426</v>
       </c>
-      <c r="M14" s="3">
-        <v>422</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1485,9 +1472,8 @@
       <c r="M15" s="4">
         <v>128</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,9 +1513,8 @@
       <c r="M16" s="3">
         <v>59</v>
       </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1569,9 +1554,8 @@
       <c r="M17" s="6">
         <v>68</v>
       </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,9 +1595,8 @@
       <c r="M18" s="3">
         <v>62</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1647,9 +1630,8 @@
       <c r="M19" s="4">
         <v>50</v>
       </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1683,9 +1665,8 @@
       <c r="M20" s="3">
         <v>50</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1725,9 +1706,8 @@
       <c r="M21" s="4">
         <v>48</v>
       </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1767,9 +1747,8 @@
       <c r="M22" s="3">
         <v>43</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1809,9 +1788,8 @@
       <c r="M23" s="4">
         <v>96</v>
       </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1851,9 +1829,8 @@
       <c r="M24" s="3">
         <v>18</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1893,9 +1870,8 @@
       <c r="M25" s="4">
         <v>15</v>
       </c>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,9 +1911,8 @@
       <c r="M26" s="3">
         <v>51</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1977,9 +1952,8 @@
       <c r="M27" s="4">
         <v>32</v>
       </c>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2019,9 +1993,8 @@
       <c r="M28" s="3">
         <v>69</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2061,9 +2034,8 @@
       <c r="M29" s="8">
         <v>73</v>
       </c>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -2091,9 +2063,8 @@
       <c r="M30" s="3">
         <v>105</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,9 +2104,8 @@
       <c r="M31" s="4">
         <v>102</v>
       </c>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2175,9 +2145,8 @@
       <c r="M32" s="3">
         <v>16</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -2217,9 +2186,8 @@
       <c r="M33" s="6">
         <v>13</v>
       </c>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2259,9 +2227,8 @@
       <c r="M34" s="7">
         <v>13</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2301,9 +2268,8 @@
       <c r="M35" s="6">
         <v>16</v>
       </c>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2343,9 +2309,8 @@
       <c r="M36" s="7">
         <v>16</v>
       </c>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>33</v>
       </c>
@@ -2385,9 +2350,8 @@
       <c r="M37" s="6">
         <v>18</v>
       </c>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>34</v>
       </c>
@@ -2427,9 +2391,8 @@
       <c r="M38" s="7">
         <v>18</v>
       </c>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
@@ -2469,9 +2432,8 @@
       <c r="M39" s="4">
         <v>20</v>
       </c>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -2511,9 +2473,8 @@
       <c r="M40" s="3">
         <v>6</v>
       </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>37</v>
       </c>
@@ -2553,9 +2514,8 @@
       <c r="M41" s="4">
         <v>10</v>
       </c>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>38</v>
       </c>
@@ -2595,9 +2555,8 @@
       <c r="M42" s="3">
         <v>12</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -2637,9 +2596,8 @@
       <c r="M43" s="4">
         <v>15</v>
       </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2657,9 +2615,8 @@
       <c r="M44" s="7">
         <v>23</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -2699,7 +2656,6 @@
       <c r="M45" s="4">
         <v>27</v>
       </c>
-      <c r="N45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F228D8C-4BD4-4C98-AA0C-7FD0319CC164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B33D8CC-AACC-492F-ACCE-62681A93E8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B33D8CC-AACC-492F-ACCE-62681A93E8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86DF83-3E8B-4694-B8B1-96DCF6C6271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="109">
   <si>
     <t>Имя файла</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>ZZZ.board</t>
+  </si>
+  <si>
+    <t>ERRORERROR.board</t>
+  </si>
+  <si>
+    <t>errorerrorerror.board</t>
+  </si>
+  <si>
+    <t>Колличество шагов13</t>
   </si>
 </sst>
 </file>
@@ -371,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +423,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -436,11 +451,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -450,6 +476,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K45" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K45" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K47" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K47" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1CE8E175-F361-4C49-8FC0-D0643325FE40}" uniqueName="Имя файла" name="Имя файла">
       <xmlColumnPr mapId="1" xpath="/DocumentElement/results/Имя_x005f_x0020_файла" xmlDataType="string"/>
@@ -859,26 +894,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,8 +953,11 @@
       <c r="M1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -959,8 +997,11 @@
       <c r="M2" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1000,8 +1041,11 @@
       <c r="M3" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -1021,8 +1065,11 @@
       <c r="M4" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1062,8 +1109,11 @@
       <c r="M5" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1103,8 +1153,11 @@
       <c r="M6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1144,8 +1197,11 @@
       <c r="M7" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1185,8 +1241,11 @@
       <c r="M8" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,8 +1285,11 @@
       <c r="M9" s="6">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,8 +1329,11 @@
       <c r="M10" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1373,11 @@
       <c r="M11" s="4">
         <v>413</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,8 +1417,11 @@
       <c r="M12" s="3">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="10">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1390,8 +1461,11 @@
       <c r="M13" s="4">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,8 +1505,11 @@
       <c r="M14" s="5">
         <v>434</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="14">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1472,8 +1549,11 @@
       <c r="M15" s="4">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1513,8 +1593,11 @@
       <c r="M16" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1554,8 +1637,11 @@
       <c r="M17" s="6">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1681,11 @@
       <c r="M18" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1630,8 +1719,11 @@
       <c r="M19" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1665,8 +1757,11 @@
       <c r="M20" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1706,8 +1801,11 @@
       <c r="M21" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,8 +1845,11 @@
       <c r="M22" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1788,8 +1889,11 @@
       <c r="M23" s="4">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1829,8 +1933,11 @@
       <c r="M24" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1870,8 +1977,11 @@
       <c r="M25" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1911,8 +2021,11 @@
       <c r="M26" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -1952,8 +2065,11 @@
       <c r="M27" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2109,11 @@
       <c r="M28" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2034,628 +2153,761 @@
       <c r="M29" s="8">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" s="12">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K30">
+      <c r="K32">
         <v>105</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L32" s="3">
         <v>105</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M32" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="N32" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>102</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K31">
+      <c r="K33">
         <v>102</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L33" s="4">
         <v>102</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M33" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="N33" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>16</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K32">
+      <c r="K34">
         <v>16</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L34" s="3">
         <v>16</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M34" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="N34" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>13</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K33">
+      <c r="K35">
         <v>13</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L35" s="4">
         <v>17</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M35" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="N35" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C34">
+      <c r="C36">
         <v>13</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K34">
+      <c r="K36">
         <v>13</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L36" s="3">
         <v>17</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M36" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="N36" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35">
+      <c r="C37">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K35">
+      <c r="K37">
         <v>16</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L37" s="4">
         <v>20</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M37" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="N37" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C36">
+      <c r="C38">
         <v>16</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K36">
+      <c r="K38">
         <v>16</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L38" s="3">
         <v>20</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M38" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="N38" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>18</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J39" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K37">
+      <c r="K39">
         <v>18</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L39" s="4">
         <v>22</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M39" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="N39" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C38">
+      <c r="C40">
         <v>18</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K38">
+      <c r="K40">
         <v>18</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L40" s="3">
         <v>22</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M40" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="N40" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>20</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K39">
+      <c r="K41">
         <v>20</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L41" s="4">
         <v>20</v>
       </c>
-      <c r="M39" s="4">
+      <c r="M41" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="N41" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K40">
+      <c r="K42">
         <v>6</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L42" s="3">
         <v>6</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M42" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="N42" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>10</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K41">
+      <c r="K43">
         <v>10</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L43" s="4">
         <v>10</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M43" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="N43" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>16</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K42">
+      <c r="K44">
         <v>12</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L44" s="3">
         <v>12</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M44" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="N44" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C43">
+      <c r="C45">
         <v>22</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K43">
+      <c r="K45">
         <v>15</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L45" s="4">
         <v>15</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M45" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="N45" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="3">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="3">
         <v>27</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M46" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="N46" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C45">
+      <c r="C47">
         <v>27</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K47" s="1">
         <v>27</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L47" s="4">
         <v>27</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M47" s="4">
         <v>27</v>
       </c>
+      <c r="N47" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86DF83-3E8B-4694-B8B1-96DCF6C6271E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001C04FE-D7F3-4B54-AC14-91A9C97B4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="110">
   <si>
     <t>Имя файла</t>
   </si>
@@ -355,6 +368,9 @@
   </si>
   <si>
     <t>Колличество шагов13</t>
+  </si>
+  <si>
+    <t>ERROR_0.board</t>
   </si>
 </sst>
 </file>
@@ -380,7 +396,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -466,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -484,7 +506,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,8 +585,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K47" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K47" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K48" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K48" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1CE8E175-F361-4C49-8FC0-D0643325FE40}" uniqueName="Имя файла" name="Имя файла">
       <xmlColumnPr mapId="1" xpath="/DocumentElement/results/Имя_x005f_x0020_файла" xmlDataType="string"/>
@@ -894,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,9 +942,10 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="17" max="23" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,8 +988,12 @@
       <c r="N1" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1000,8 +1036,19 @@
       <c r="N2" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="20">
+        <v>7</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1044,8 +1091,19 @@
       <c r="N3" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="20">
+        <v>3</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -1068,8 +1126,19 @@
       <c r="N4" s="13">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="22">
+        <v>43</v>
+      </c>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1112,8 +1181,19 @@
       <c r="N5" s="11">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="20">
+        <v>22</v>
+      </c>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1156,8 +1236,19 @@
       <c r="N6" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="20">
+        <v>3</v>
+      </c>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1200,8 +1291,19 @@
       <c r="N7" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="20">
+        <v>8</v>
+      </c>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,8 +1346,19 @@
       <c r="N8" s="10">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="20">
+        <v>15</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1288,8 +1401,19 @@
       <c r="N9" s="11">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="20">
+        <v>74</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,8 +1456,19 @@
       <c r="N10" s="10">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="20">
+        <v>67</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1376,8 +1511,19 @@
       <c r="N11" s="11">
         <v>413</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="20">
+        <v>413</v>
+      </c>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1420,8 +1566,19 @@
       <c r="N12" s="10">
         <v>155</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="20">
+        <v>155</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1464,8 +1621,19 @@
       <c r="N13" s="11">
         <v>147</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="20">
+        <v>147</v>
+      </c>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1508,8 +1676,19 @@
       <c r="N14" s="14">
         <v>337</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="23">
+        <v>461</v>
+      </c>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1552,8 +1731,19 @@
       <c r="N15" s="11">
         <v>128</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="20">
+        <v>128</v>
+      </c>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1596,8 +1786,19 @@
       <c r="N16" s="10">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="20">
+        <v>49</v>
+      </c>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,8 +1841,19 @@
       <c r="N17" s="11">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="20">
+        <v>68</v>
+      </c>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1684,8 +1896,19 @@
       <c r="N18" s="10">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="20">
+        <v>62</v>
+      </c>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -1722,8 +1945,19 @@
       <c r="N19" s="11">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="20">
+        <v>50</v>
+      </c>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -1760,8 +1994,19 @@
       <c r="N20" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="20">
+        <v>50</v>
+      </c>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1804,8 +2049,19 @@
       <c r="N21" s="11">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="20">
+        <v>48</v>
+      </c>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1848,8 +2104,19 @@
       <c r="N22" s="10">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="20">
+        <v>43</v>
+      </c>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,8 +2159,19 @@
       <c r="N23" s="11">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="20">
+        <v>96</v>
+      </c>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1936,8 +2214,19 @@
       <c r="N24" s="10">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="20">
+        <v>18</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1980,8 +2269,19 @@
       <c r="N25" s="11">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="20">
+        <v>15</v>
+      </c>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2024,8 +2324,19 @@
       <c r="N26" s="10">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="20">
+        <v>51</v>
+      </c>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2068,8 +2379,19 @@
       <c r="N27" s="11">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="20">
+        <v>32</v>
+      </c>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2112,8 +2434,19 @@
       <c r="N28" s="10">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="20">
+        <v>69</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2156,8 +2489,19 @@
       <c r="N29" s="15">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="23">
+        <v>72</v>
+      </c>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -2167,8 +2511,19 @@
       <c r="N30" s="10">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="22">
+        <v>106</v>
+      </c>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -2178,174 +2533,193 @@
       <c r="N31" s="12">
         <v>413</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="23">
+        <v>430</v>
+      </c>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>105</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L33" s="3">
         <v>105</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M33" s="3">
         <v>105</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N33" s="10">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="O33" s="20">
+        <v>105</v>
+      </c>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K33">
+      <c r="K34">
         <v>102</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L34" s="4">
         <v>102</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="4">
         <v>102</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N34" s="11">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="O34" s="20">
+        <v>102</v>
+      </c>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>16</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>16</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L35" s="3">
         <v>16</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M35" s="3">
         <v>16</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N35" s="10">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="O35" s="20">
+        <v>16</v>
+      </c>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35">
-        <v>13</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K35">
-        <v>13</v>
-      </c>
-      <c r="L35" s="4">
-        <v>17</v>
-      </c>
-      <c r="M35" s="6">
-        <v>13</v>
-      </c>
-      <c r="N35" s="11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>61</v>
@@ -2377,63 +2751,85 @@
       <c r="K36">
         <v>13</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="4">
         <v>17</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>13</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="20">
+        <v>13</v>
+      </c>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K37">
+        <v>13</v>
+      </c>
+      <c r="L37" s="3">
+        <v>17</v>
+      </c>
+      <c r="M37" s="7">
+        <v>13</v>
+      </c>
+      <c r="N37" s="10">
+        <v>13</v>
+      </c>
+      <c r="O37" s="20">
+        <v>13</v>
+      </c>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K37">
-        <v>16</v>
-      </c>
-      <c r="L37" s="4">
-        <v>20</v>
-      </c>
-      <c r="M37" s="6">
-        <v>16</v>
-      </c>
-      <c r="N37" s="11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -2465,63 +2861,85 @@
       <c r="K38">
         <v>16</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="4">
         <v>20</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>16</v>
       </c>
-      <c r="N38" s="10">
+      <c r="N38" s="11">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="20">
+        <v>16</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39">
+        <v>16</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39">
+        <v>16</v>
+      </c>
+      <c r="L39" s="3">
+        <v>20</v>
+      </c>
+      <c r="M39" s="7">
+        <v>16</v>
+      </c>
+      <c r="N39" s="10">
+        <v>16</v>
+      </c>
+      <c r="O39" s="20">
+        <v>16</v>
+      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39">
-        <v>18</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39">
-        <v>18</v>
-      </c>
-      <c r="L39" s="4">
-        <v>22</v>
-      </c>
-      <c r="M39" s="6">
-        <v>18</v>
-      </c>
-      <c r="N39" s="11">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>56</v>
@@ -2553,313 +2971,446 @@
       <c r="K40">
         <v>18</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
         <v>22</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <v>18</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="20">
+        <v>18</v>
+      </c>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41">
+        <v>18</v>
+      </c>
+      <c r="L41" s="3">
+        <v>22</v>
+      </c>
+      <c r="M41" s="7">
+        <v>18</v>
+      </c>
+      <c r="N41" s="10">
+        <v>18</v>
+      </c>
+      <c r="O41" s="20">
+        <v>18</v>
+      </c>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>20</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K41">
+      <c r="K42">
         <v>20</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L42" s="4">
         <v>20</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M42" s="4">
         <v>20</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N42" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="O42" s="20">
+        <v>20</v>
+      </c>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>6</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L43" s="3">
         <v>6</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M43" s="3">
         <v>6</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N43" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="O43" s="20">
+        <v>6</v>
+      </c>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K43">
+      <c r="K44">
         <v>10</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L44" s="4">
         <v>10</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M44" s="4">
         <v>10</v>
       </c>
-      <c r="N43" s="11">
+      <c r="N44" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="O44" s="20">
+        <v>10</v>
+      </c>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>16</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <v>12</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L45" s="3">
         <v>12</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M45" s="3">
         <v>12</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N45" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="O45" s="20">
+        <v>12</v>
+      </c>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>22</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K45">
+      <c r="K46">
         <v>15</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L46" s="4">
         <v>15</v>
       </c>
-      <c r="M45" s="4">
+      <c r="M46" s="4">
         <v>15</v>
       </c>
-      <c r="N45" s="16">
+      <c r="N46" s="16">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="O46" s="22">
+        <v>22</v>
+      </c>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="3">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="3">
         <v>27</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M47" s="7">
         <v>23</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N47" s="10">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="O47" s="20">
+        <v>23</v>
+      </c>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <v>27</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K48" s="1">
         <v>27</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L48" s="4">
         <v>27</v>
       </c>
-      <c r="M47" s="4">
+      <c r="M48" s="4">
         <v>27</v>
       </c>
-      <c r="N47" s="11">
+      <c r="N48" s="11">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="O48" s="20">
+        <v>27</v>
+      </c>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2869,7 +3420,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2878,8 +3429,16 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <f>SUM((N2:N30,N31,N33:N48))</f>
+        <v>3123</v>
+      </c>
+      <c r="O50">
+        <f>SUM((O2:O30,O31,O33:O48))</f>
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2889,7 +3448,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2899,7 +3458,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001C04FE-D7F3-4B54-AC14-91A9C97B4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0702B0D-AE63-4CD2-972E-AA0C71335864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="126">
   <si>
     <t>Имя файла</t>
   </si>
@@ -371,6 +371,54 @@
   </si>
   <si>
     <t>ERROR_0.board</t>
+  </si>
+  <si>
+    <t>ERROR_1.board</t>
+  </si>
+  <si>
+    <t>ERROR_2.board</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -396,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +493,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -488,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -507,15 +549,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K48" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K48" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K52" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K52" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1CE8E175-F361-4C49-8FC0-D0643325FE40}" uniqueName="Имя файла" name="Имя файла">
       <xmlColumnPr mapId="1" xpath="/DocumentElement/results/Имя_x005f_x0020_файла" xmlDataType="string"/>
@@ -927,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +980,7 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="17" max="23" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -991,7 +1029,9 @@
       <c r="O1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1036,15 +1076,12 @@
       <c r="N2" s="10">
         <v>7</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2">
         <v>7</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
@@ -1091,15 +1128,12 @@
       <c r="N3" s="11">
         <v>3</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
@@ -1126,15 +1160,12 @@
       <c r="N4" s="13">
         <v>44</v>
       </c>
-      <c r="O4" s="22">
-        <v>43</v>
-      </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="O4" s="18">
+        <v>43</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
@@ -1181,15 +1212,12 @@
       <c r="N5" s="11">
         <v>22</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5">
         <v>22</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="P5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
@@ -1236,15 +1264,12 @@
       <c r="N6" s="10">
         <v>3</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="P6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
@@ -1291,15 +1316,12 @@
       <c r="N7" s="11">
         <v>8</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7">
         <v>8</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
+      <c r="P7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
@@ -1346,15 +1368,12 @@
       <c r="N8" s="10">
         <v>15</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8">
         <v>15</v>
       </c>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="P8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -1401,15 +1420,12 @@
       <c r="N9" s="11">
         <v>74</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9">
         <v>74</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="P9" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
@@ -1456,15 +1472,12 @@
       <c r="N10" s="10">
         <v>67</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10">
         <v>67</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="P10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
@@ -1511,15 +1524,12 @@
       <c r="N11" s="11">
         <v>413</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11">
         <v>413</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="P11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
@@ -1566,15 +1576,12 @@
       <c r="N12" s="10">
         <v>155</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12">
         <v>155</v>
       </c>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="P12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
@@ -1621,15 +1628,12 @@
       <c r="N13" s="11">
         <v>147</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13">
         <v>147</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="P13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
@@ -1676,15 +1680,13 @@
       <c r="N14" s="14">
         <v>337</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="19">
         <v>461</v>
       </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="P14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="20"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
@@ -1731,15 +1733,12 @@
       <c r="N15" s="11">
         <v>128</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15">
         <v>128</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="P15" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
@@ -1786,15 +1785,13 @@
       <c r="N16" s="10">
         <v>59</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16">
         <v>49</v>
       </c>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="P16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="20"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
@@ -1841,15 +1838,12 @@
       <c r="N17" s="11">
         <v>68</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17">
         <v>68</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
+      <c r="P17" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
@@ -1896,15 +1890,12 @@
       <c r="N18" s="10">
         <v>62</v>
       </c>
-      <c r="O18" s="20">
+      <c r="O18">
         <v>62</v>
       </c>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="P18" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
@@ -1945,15 +1936,12 @@
       <c r="N19" s="11">
         <v>50</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19">
         <v>50</v>
       </c>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
+      <c r="P19" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
@@ -1994,15 +1982,12 @@
       <c r="N20" s="10">
         <v>50</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20">
         <v>50</v>
       </c>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
+      <c r="P20" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
@@ -2049,15 +2034,12 @@
       <c r="N21" s="11">
         <v>48</v>
       </c>
-      <c r="O21" s="20">
+      <c r="O21">
         <v>48</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
+      <c r="P21" s="21" t="s">
+        <v>117</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
@@ -2104,15 +2086,12 @@
       <c r="N22" s="10">
         <v>43</v>
       </c>
-      <c r="O22" s="20">
-        <v>43</v>
-      </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+      <c r="O22">
+        <v>43</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
@@ -2159,15 +2138,12 @@
       <c r="N23" s="11">
         <v>96</v>
       </c>
-      <c r="O23" s="20">
+      <c r="O23">
         <v>96</v>
       </c>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
+      <c r="P23" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
@@ -2214,15 +2190,12 @@
       <c r="N24" s="10">
         <v>18</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24">
         <v>18</v>
       </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
+      <c r="P24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
@@ -2269,15 +2242,12 @@
       <c r="N25" s="11">
         <v>15</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25">
         <v>15</v>
       </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
+      <c r="P25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
@@ -2324,15 +2294,12 @@
       <c r="N26" s="10">
         <v>51</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26">
         <v>51</v>
       </c>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
+      <c r="P26" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
@@ -2379,15 +2346,12 @@
       <c r="N27" s="11">
         <v>32</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27">
         <v>32</v>
       </c>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
+      <c r="P27" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
@@ -2434,15 +2398,12 @@
       <c r="N28" s="10">
         <v>69</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28">
         <v>69</v>
       </c>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
+      <c r="P28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
@@ -2489,15 +2450,13 @@
       <c r="N29" s="15">
         <v>66</v>
       </c>
-      <c r="O29" s="23">
+      <c r="O29" s="19">
         <v>72</v>
       </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
+      <c r="P29" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="S29" s="20"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
@@ -2511,15 +2470,12 @@
       <c r="N30" s="10">
         <v>122</v>
       </c>
-      <c r="O30" s="22">
+      <c r="O30" s="18">
         <v>106</v>
       </c>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
+      <c r="P30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
@@ -2533,15 +2489,13 @@
       <c r="N31" s="12">
         <v>413</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O31" s="19">
         <v>430</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
+      <c r="P31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="S31" s="20"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
@@ -2555,7 +2509,9 @@
       <c r="O32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="18"/>
+      <c r="P32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -2566,851 +2522,746 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K33">
-        <v>105</v>
-      </c>
-      <c r="L33" s="3">
-        <v>105</v>
-      </c>
-      <c r="M33" s="3">
-        <v>105</v>
-      </c>
-      <c r="N33" s="10">
-        <v>105</v>
-      </c>
-      <c r="O33" s="20">
-        <v>105</v>
-      </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
+        <v>110</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34">
-        <v>102</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34">
-        <v>102</v>
-      </c>
-      <c r="L34" s="4">
-        <v>102</v>
-      </c>
-      <c r="M34" s="4">
-        <v>102</v>
-      </c>
-      <c r="N34" s="11">
-        <v>102</v>
-      </c>
-      <c r="O34" s="20">
-        <v>102</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
+        <v>111</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="K35">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="L35" s="3">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="M35" s="3">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N35" s="10">
-        <v>16</v>
-      </c>
-      <c r="O35" s="20">
-        <v>16</v>
-      </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="O35">
+        <v>105</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K36">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="L36" s="4">
-        <v>17</v>
-      </c>
-      <c r="M36" s="6">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="M36" s="4">
+        <v>102</v>
       </c>
       <c r="N36" s="11">
-        <v>13</v>
-      </c>
-      <c r="O36" s="20">
-        <v>13</v>
-      </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="O36">
+        <v>102</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L37" s="3">
-        <v>17</v>
-      </c>
-      <c r="M37" s="7">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="M37" s="3">
+        <v>16</v>
       </c>
       <c r="N37" s="10">
-        <v>13</v>
-      </c>
-      <c r="O37" s="20">
-        <v>13</v>
-      </c>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="O37">
+        <v>16</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L38" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M38" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N38" s="11">
-        <v>16</v>
-      </c>
-      <c r="O38" s="20">
-        <v>16</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>13</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L39" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M39" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N39" s="10">
-        <v>16</v>
-      </c>
-      <c r="O39" s="20">
-        <v>16</v>
-      </c>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="O39">
+        <v>13</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K40">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L40" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M40" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N40" s="11">
-        <v>18</v>
-      </c>
-      <c r="O40" s="20">
-        <v>18</v>
-      </c>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="O40">
+        <v>16</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L41" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M41" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N41" s="10">
-        <v>18</v>
-      </c>
-      <c r="O41" s="20">
-        <v>18</v>
-      </c>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="O41">
+        <v>16</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L42" s="4">
-        <v>20</v>
-      </c>
-      <c r="M42" s="4">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="M42" s="6">
+        <v>18</v>
       </c>
       <c r="N42" s="11">
-        <v>20</v>
-      </c>
-      <c r="O42" s="20">
-        <v>20</v>
-      </c>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="O42">
+        <v>18</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L43" s="3">
-        <v>6</v>
-      </c>
-      <c r="M43" s="3">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="M43" s="7">
+        <v>18</v>
       </c>
       <c r="N43" s="10">
-        <v>6</v>
-      </c>
-      <c r="O43" s="20">
-        <v>6</v>
-      </c>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="O43">
+        <v>18</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L44" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M44" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N44" s="11">
-        <v>10</v>
-      </c>
-      <c r="O44" s="20">
-        <v>10</v>
-      </c>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
+        <v>20</v>
+      </c>
+      <c r="O44">
+        <v>20</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L45" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M45" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N45" s="10">
-        <v>12</v>
-      </c>
-      <c r="O45" s="20">
-        <v>12</v>
-      </c>
-      <c r="P45" s="19"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>6</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L46" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M46" s="4">
-        <v>15</v>
-      </c>
-      <c r="N46" s="16">
-        <v>23</v>
-      </c>
-      <c r="O46" s="22">
-        <v>22</v>
-      </c>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="N46" s="11">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K47">
+        <v>12</v>
+      </c>
       <c r="L47" s="3">
-        <v>27</v>
-      </c>
-      <c r="M47" s="7">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="M47" s="3">
+        <v>12</v>
       </c>
       <c r="N47" s="10">
-        <v>23</v>
-      </c>
-      <c r="O47" s="20">
-        <v>23</v>
-      </c>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="O47">
+        <v>12</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" s="1">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="K48">
+        <v>15</v>
       </c>
       <c r="L48" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M48" s="4">
-        <v>27</v>
-      </c>
-      <c r="N48" s="11">
-        <v>27</v>
-      </c>
-      <c r="O48" s="20">
-        <v>27</v>
-      </c>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="N48" s="16">
+        <v>23</v>
+      </c>
+      <c r="O48" s="18">
+        <v>22</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -3419,26 +3270,73 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="N50">
-        <f>SUM((N2:N30,N31,N33:N48))</f>
-        <v>3123</v>
+      <c r="L49" s="3">
+        <v>27</v>
+      </c>
+      <c r="M49" s="7">
+        <v>23</v>
+      </c>
+      <c r="N49" s="10">
+        <v>23</v>
+      </c>
+      <c r="O49">
+        <v>23</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K50" s="1">
+        <v>27</v>
+      </c>
+      <c r="L50" s="4">
+        <v>27</v>
+      </c>
+      <c r="M50" s="4">
+        <v>27</v>
+      </c>
+      <c r="N50" s="11">
+        <v>27</v>
       </c>
       <c r="O50">
-        <f>SUM((O2:O30,O31,O33:O48))</f>
-        <v>3242</v>
-      </c>
-    </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -3448,7 +3346,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3458,7 +3356,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0702B0D-AE63-4CD2-972E-AA0C71335864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498CB9C-F403-4DEF-BE2C-35D706244EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="131">
   <si>
     <t>Имя файла</t>
   </si>
@@ -419,6 +419,21 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>ERROR_3.board</t>
+  </si>
+  <si>
+    <t>ERROR_4.board</t>
+  </si>
+  <si>
+    <t>ERROR_5.board</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>188</t>
   </si>
 </sst>
 </file>
@@ -623,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K52" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K52" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K53" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K53" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1CE8E175-F361-4C49-8FC0-D0643325FE40}" uniqueName="Имя файла" name="Имя файла">
       <xmlColumnPr mapId="1" xpath="/DocumentElement/results/Имя_x005f_x0020_файла" xmlDataType="string"/>
@@ -963,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,6 +1047,9 @@
       <c r="P1" t="s">
         <v>1</v>
       </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1082,6 +1100,9 @@
       <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
@@ -1132,6 +1153,9 @@
         <v>3</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="V3" s="1"/>
@@ -1166,6 +1190,9 @@
       <c r="P4" s="21" t="s">
         <v>112</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
@@ -1218,6 +1245,9 @@
       <c r="P5" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="Q5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
@@ -1270,6 +1300,9 @@
       <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
@@ -1322,6 +1355,9 @@
       <c r="P7" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
@@ -1374,6 +1410,9 @@
       <c r="P8" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -1426,6 +1465,9 @@
       <c r="P9" s="22" t="s">
         <v>113</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
@@ -1478,6 +1520,9 @@
       <c r="P10" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="Q10" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
@@ -1530,6 +1575,9 @@
       <c r="P11" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="Q11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
@@ -1582,6 +1630,9 @@
       <c r="P12" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="Q12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
@@ -1634,6 +1685,9 @@
       <c r="P13" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="Q13" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
@@ -1686,6 +1740,9 @@
       <c r="P14" s="21" t="s">
         <v>114</v>
       </c>
+      <c r="Q14" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="S14" s="20"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1739,6 +1796,9 @@
       <c r="P15" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="Q15" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
@@ -1791,6 +1851,9 @@
       <c r="P16" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="Q16" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="S16" s="20"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1844,6 +1907,9 @@
       <c r="P17" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="Q17" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
@@ -1896,6 +1962,9 @@
       <c r="P18" s="21" t="s">
         <v>116</v>
       </c>
+      <c r="Q18" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
@@ -1942,6 +2011,9 @@
       <c r="P19" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
@@ -1988,6 +2060,9 @@
       <c r="P20" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="Q20" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
@@ -2040,6 +2115,9 @@
       <c r="P21" s="21" t="s">
         <v>117</v>
       </c>
+      <c r="Q21" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
@@ -2092,6 +2170,9 @@
       <c r="P22" s="22" t="s">
         <v>118</v>
       </c>
+      <c r="Q22" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
@@ -2144,6 +2225,9 @@
       <c r="P23" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="Q23" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
@@ -2196,6 +2280,9 @@
       <c r="P24" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="Q24" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
@@ -2248,6 +2335,9 @@
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="Q25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
@@ -2300,6 +2390,9 @@
       <c r="P26" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="Q26" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
@@ -2352,6 +2445,9 @@
       <c r="P27" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="Q27" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
@@ -2404,6 +2500,9 @@
       <c r="P28" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="Q28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
@@ -2456,6 +2555,9 @@
       <c r="P29" s="21" t="s">
         <v>119</v>
       </c>
+      <c r="Q29" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="S29" s="20"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
@@ -2476,6 +2578,9 @@
       <c r="P30" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="Q30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
@@ -2495,6 +2600,9 @@
       <c r="P31" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="Q31" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="S31" s="20"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
@@ -2512,7 +2620,9 @@
       <c r="P32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -2527,6 +2637,9 @@
       <c r="P33" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="Q33" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
@@ -2537,260 +2650,152 @@
       <c r="P34" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="Q34" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K35">
-        <v>105</v>
-      </c>
-      <c r="L35" s="3">
-        <v>105</v>
-      </c>
-      <c r="M35" s="3">
-        <v>105</v>
-      </c>
-      <c r="N35" s="10">
-        <v>105</v>
-      </c>
-      <c r="O35">
-        <v>105</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36">
-        <v>102</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36">
-        <v>102</v>
-      </c>
-      <c r="L36" s="4">
-        <v>102</v>
-      </c>
-      <c r="M36" s="4">
-        <v>102</v>
-      </c>
-      <c r="N36" s="11">
-        <v>102</v>
-      </c>
-      <c r="O36">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K37">
-        <v>16</v>
-      </c>
-      <c r="L37" s="3">
-        <v>16</v>
-      </c>
-      <c r="M37" s="3">
-        <v>16</v>
-      </c>
-      <c r="N37" s="10">
-        <v>16</v>
-      </c>
-      <c r="O37">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="K38">
-        <v>13</v>
-      </c>
-      <c r="L38" s="4">
-        <v>17</v>
-      </c>
-      <c r="M38" s="6">
-        <v>13</v>
-      </c>
-      <c r="N38" s="11">
-        <v>13</v>
+        <v>105</v>
+      </c>
+      <c r="L38" s="3">
+        <v>105</v>
+      </c>
+      <c r="M38" s="3">
+        <v>105</v>
+      </c>
+      <c r="N38" s="10">
+        <v>105</v>
       </c>
       <c r="O38">
-        <v>13</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>13</v>
-      </c>
-      <c r="L39" s="3">
-        <v>17</v>
-      </c>
-      <c r="M39" s="7">
-        <v>13</v>
-      </c>
-      <c r="N39" s="10">
-        <v>13</v>
+        <v>102</v>
+      </c>
+      <c r="L39" s="4">
+        <v>102</v>
+      </c>
+      <c r="M39" s="4">
+        <v>102</v>
+      </c>
+      <c r="N39" s="11">
+        <v>102</v>
       </c>
       <c r="O39">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
@@ -2811,24 +2816,24 @@
         <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>16</v>
       </c>
-      <c r="L40" s="4">
-        <v>20</v>
-      </c>
-      <c r="M40" s="6">
+      <c r="L40" s="3">
         <v>16</v>
       </c>
-      <c r="N40" s="11">
+      <c r="M40" s="3">
+        <v>16</v>
+      </c>
+      <c r="N40" s="10">
         <v>16</v>
       </c>
       <c r="O40">
@@ -2837,317 +2842,338 @@
       <c r="P40" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="Q40" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>16</v>
-      </c>
-      <c r="L41" s="3">
-        <v>20</v>
-      </c>
-      <c r="M41" s="7">
-        <v>16</v>
-      </c>
-      <c r="N41" s="10">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L41" s="4">
+        <v>17</v>
+      </c>
+      <c r="M41" s="6">
+        <v>13</v>
+      </c>
+      <c r="N41" s="11">
+        <v>13</v>
       </c>
       <c r="O41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>18</v>
-      </c>
-      <c r="L42" s="4">
-        <v>22</v>
-      </c>
-      <c r="M42" s="6">
-        <v>18</v>
-      </c>
-      <c r="N42" s="11">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="L42" s="3">
+        <v>17</v>
+      </c>
+      <c r="M42" s="7">
+        <v>13</v>
+      </c>
+      <c r="N42" s="10">
+        <v>13</v>
       </c>
       <c r="O42">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>18</v>
-      </c>
-      <c r="L43" s="3">
-        <v>22</v>
-      </c>
-      <c r="M43" s="7">
-        <v>18</v>
-      </c>
-      <c r="N43" s="10">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="L43" s="4">
+        <v>20</v>
+      </c>
+      <c r="M43" s="6">
+        <v>16</v>
+      </c>
+      <c r="N43" s="11">
+        <v>16</v>
       </c>
       <c r="O43">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C44">
+        <v>16</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>16</v>
+      </c>
+      <c r="L44" s="3">
         <v>20</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K44">
-        <v>20</v>
-      </c>
-      <c r="L44" s="4">
-        <v>20</v>
-      </c>
-      <c r="M44" s="4">
-        <v>20</v>
-      </c>
-      <c r="N44" s="11">
-        <v>20</v>
+      <c r="M44" s="7">
+        <v>16</v>
+      </c>
+      <c r="N44" s="10">
+        <v>16</v>
       </c>
       <c r="O44">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="K45">
-        <v>6</v>
-      </c>
-      <c r="L45" s="3">
-        <v>6</v>
-      </c>
-      <c r="M45" s="3">
-        <v>6</v>
-      </c>
-      <c r="N45" s="10">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="L45" s="4">
+        <v>22</v>
+      </c>
+      <c r="M45" s="6">
+        <v>18</v>
+      </c>
+      <c r="N45" s="11">
+        <v>18</v>
       </c>
       <c r="O45">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>10</v>
-      </c>
-      <c r="L46" s="4">
-        <v>10</v>
-      </c>
-      <c r="M46" s="4">
-        <v>10</v>
-      </c>
-      <c r="N46" s="11">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="L46" s="3">
+        <v>22</v>
+      </c>
+      <c r="M46" s="7">
+        <v>18</v>
+      </c>
+      <c r="N46" s="10">
+        <v>18</v>
       </c>
       <c r="O46">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
@@ -3156,197 +3182,277 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>12</v>
-      </c>
-      <c r="L47" s="3">
-        <v>12</v>
-      </c>
-      <c r="M47" s="3">
-        <v>12</v>
-      </c>
-      <c r="N47" s="10">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="L47" s="4">
+        <v>20</v>
+      </c>
+      <c r="M47" s="4">
+        <v>20</v>
+      </c>
+      <c r="N47" s="11">
+        <v>20</v>
       </c>
       <c r="O47">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>15</v>
-      </c>
-      <c r="L48" s="4">
-        <v>15</v>
-      </c>
-      <c r="M48" s="4">
-        <v>15</v>
-      </c>
-      <c r="N48" s="16">
-        <v>23</v>
-      </c>
-      <c r="O48" s="18">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="L48" s="3">
+        <v>6</v>
+      </c>
+      <c r="M48" s="3">
+        <v>6</v>
+      </c>
+      <c r="N48" s="10">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49" s="4">
+        <v>10</v>
+      </c>
+      <c r="M49" s="4">
+        <v>10</v>
+      </c>
+      <c r="N49" s="11">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>10</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+      <c r="L50" s="3">
+        <v>12</v>
+      </c>
+      <c r="M50" s="3">
+        <v>12</v>
+      </c>
+      <c r="N50" s="10">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>12</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51" s="4">
+        <v>15</v>
+      </c>
+      <c r="M51" s="4">
+        <v>15</v>
+      </c>
+      <c r="N51" s="16">
+        <v>23</v>
+      </c>
+      <c r="O51" s="18">
+        <v>22</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="3">
-        <v>27</v>
-      </c>
-      <c r="M49" s="7">
-        <v>23</v>
-      </c>
-      <c r="N49" s="10">
-        <v>23</v>
-      </c>
-      <c r="O49">
-        <v>23</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50">
-        <v>27</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K50" s="1">
-        <v>27</v>
-      </c>
-      <c r="L50" s="4">
-        <v>27</v>
-      </c>
-      <c r="M50" s="4">
-        <v>27</v>
-      </c>
-      <c r="N50" s="11">
-        <v>27</v>
-      </c>
-      <c r="O50">
-        <v>27</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -3355,16 +3461,97 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
+      <c r="L52" s="3">
+        <v>27</v>
+      </c>
+      <c r="M52" s="7">
+        <v>23</v>
+      </c>
+      <c r="N52" s="10">
+        <v>23</v>
+      </c>
+      <c r="O52">
+        <v>23</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="1">
+        <v>27</v>
+      </c>
+      <c r="L53" s="4">
+        <v>27</v>
+      </c>
+      <c r="M53" s="4">
+        <v>27</v>
+      </c>
+      <c r="N53" s="11">
+        <v>27</v>
+      </c>
+      <c r="O53">
+        <v>27</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1498CB9C-F403-4DEF-BE2C-35D706244EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202FC08-0DAB-4317-A3EB-C8A1B2BACE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="130">
   <si>
     <t>Имя файла</t>
   </si>
@@ -430,10 +430,7 @@
     <t>ERROR_5.board</t>
   </si>
   <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>188</t>
+    <t>NEW_ERROR12.board</t>
   </si>
 </sst>
 </file>
@@ -509,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -541,11 +538,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -566,9 +591,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -638,8 +672,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K53" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:K53" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}" name="Таблица1" displayName="Таблица1" ref="A1:K57" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:K57" xr:uid="{36A937A9-4F5B-4971-9C8B-F8AF71BEB352}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{1CE8E175-F361-4C49-8FC0-D0643325FE40}" uniqueName="Имя файла" name="Имя файла">
       <xmlColumnPr mapId="1" xpath="/DocumentElement/results/Имя_x005f_x0020_файла" xmlDataType="string"/>
@@ -978,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
+      <selection activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1084,12 @@
       <c r="Q1" t="s">
         <v>1</v>
       </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="29"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1100,9 +1140,15 @@
       <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q2" s="24">
+        <v>7</v>
+      </c>
+      <c r="R2" s="24">
+        <v>7</v>
+      </c>
+      <c r="S2" s="30"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="27"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
@@ -1155,9 +1201,15 @@
       <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q3" s="24">
+        <v>3</v>
+      </c>
+      <c r="R3" s="24">
+        <v>3</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="27"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
@@ -1187,12 +1239,18 @@
       <c r="O4" s="18">
         <v>43</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="Q4" s="24">
+        <v>38</v>
+      </c>
+      <c r="R4" s="26">
+        <v>39</v>
+      </c>
+      <c r="S4" s="30"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="27"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
@@ -1245,9 +1303,15 @@
       <c r="P5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="Q5" s="24">
+        <v>22</v>
+      </c>
+      <c r="R5" s="25">
+        <v>21</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="27"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
@@ -1300,9 +1364,15 @@
       <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="Q6" s="24">
+        <v>3</v>
+      </c>
+      <c r="R6" s="24">
+        <v>3</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="27"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
@@ -1355,9 +1425,15 @@
       <c r="P7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="Q7" s="24">
+        <v>8</v>
+      </c>
+      <c r="R7" s="24">
+        <v>8</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="27"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
@@ -1410,9 +1486,15 @@
       <c r="P8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q8" s="24">
+        <v>15</v>
+      </c>
+      <c r="R8" s="24">
+        <v>15</v>
+      </c>
+      <c r="S8" s="30"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="27"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -1462,12 +1544,18 @@
       <c r="O9">
         <v>74</v>
       </c>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q9" s="24">
+        <v>83</v>
+      </c>
+      <c r="R9" s="24">
+        <v>83</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
@@ -1520,9 +1608,15 @@
       <c r="P10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q10" s="24">
+        <v>67</v>
+      </c>
+      <c r="R10" s="24">
+        <v>67</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="27"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
@@ -1575,9 +1669,15 @@
       <c r="P11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q11" s="24">
+        <v>413</v>
+      </c>
+      <c r="R11" s="24">
+        <v>413</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="27"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
@@ -1630,9 +1730,15 @@
       <c r="P12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q12" s="24">
+        <v>155</v>
+      </c>
+      <c r="R12" s="24">
+        <v>155</v>
+      </c>
+      <c r="S12" s="30"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="27"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
@@ -1685,9 +1791,15 @@
       <c r="P13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q13" s="24">
+        <v>147</v>
+      </c>
+      <c r="R13" s="24">
+        <v>147</v>
+      </c>
+      <c r="S13" s="30"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="27"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
@@ -1737,13 +1849,18 @@
       <c r="O14" s="19">
         <v>461</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="S14" s="20"/>
+      <c r="Q14" s="24">
+        <v>391</v>
+      </c>
+      <c r="R14" s="25">
+        <v>334</v>
+      </c>
+      <c r="S14" s="30"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="27"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
@@ -1796,9 +1913,15 @@
       <c r="P15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="Q15" s="24">
+        <v>128</v>
+      </c>
+      <c r="R15" s="24">
+        <v>128</v>
+      </c>
+      <c r="S15" s="30"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="27"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
@@ -1851,10 +1974,15 @@
       <c r="P16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="24">
+        <v>49</v>
+      </c>
+      <c r="R16" s="26">
         <v>70</v>
       </c>
-      <c r="S16" s="20"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="27"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
@@ -1907,9 +2035,15 @@
       <c r="P17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="Q17" s="24">
+        <v>68</v>
+      </c>
+      <c r="R17" s="25">
+        <v>59</v>
+      </c>
+      <c r="S17" s="30"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="27"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
@@ -1959,12 +2093,18 @@
       <c r="O18">
         <v>62</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="Q18" s="24">
+        <v>42</v>
+      </c>
+      <c r="R18" s="26">
+        <v>43</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="27"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
@@ -2011,9 +2151,15 @@
       <c r="P19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q19" s="24">
+        <v>50</v>
+      </c>
+      <c r="R19" s="25">
+        <v>47</v>
+      </c>
+      <c r="S19" s="30"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="27"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
@@ -2060,9 +2206,15 @@
       <c r="P20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="Q20" s="24">
+        <v>50</v>
+      </c>
+      <c r="R20" s="25">
+        <v>49</v>
+      </c>
+      <c r="S20" s="30"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="27"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
@@ -2112,12 +2264,18 @@
       <c r="O21">
         <v>48</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="Q21" s="24">
+        <v>44</v>
+      </c>
+      <c r="R21" s="26">
+        <v>49</v>
+      </c>
+      <c r="S21" s="30"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="27"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
@@ -2167,12 +2325,18 @@
       <c r="O22">
         <v>43</v>
       </c>
-      <c r="P22" s="22" t="s">
+      <c r="P22" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="Q22" s="24">
+        <v>55</v>
+      </c>
+      <c r="R22" s="25">
+        <v>46</v>
+      </c>
+      <c r="S22" s="30"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="27"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
@@ -2225,9 +2389,15 @@
       <c r="P23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q23" s="24">
+        <v>96</v>
+      </c>
+      <c r="R23" s="24">
+        <v>96</v>
+      </c>
+      <c r="S23" s="30"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="27"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
@@ -2280,9 +2450,15 @@
       <c r="P24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="Q24" s="24">
+        <v>18</v>
+      </c>
+      <c r="R24" s="24">
+        <v>18</v>
+      </c>
+      <c r="S24" s="30"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="27"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
@@ -2335,9 +2511,15 @@
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q25" s="24">
+        <v>15</v>
+      </c>
+      <c r="R25" s="24">
+        <v>15</v>
+      </c>
+      <c r="S25" s="30"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="27"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
@@ -2390,9 +2572,15 @@
       <c r="P26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="Q26" s="24">
+        <v>51</v>
+      </c>
+      <c r="R26" s="24">
+        <v>51</v>
+      </c>
+      <c r="S26" s="30"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="27"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
@@ -2445,9 +2633,15 @@
       <c r="P27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="Q27" s="24">
+        <v>32</v>
+      </c>
+      <c r="R27" s="24">
+        <v>32</v>
+      </c>
+      <c r="S27" s="30"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="27"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
@@ -2500,9 +2694,15 @@
       <c r="P28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q28" s="24">
+        <v>69</v>
+      </c>
+      <c r="R28" s="24">
+        <v>69</v>
+      </c>
+      <c r="S28" s="30"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="27"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
@@ -2552,13 +2752,18 @@
       <c r="O29" s="19">
         <v>72</v>
       </c>
-      <c r="P29" s="21" t="s">
+      <c r="P29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="S29" s="20"/>
+      <c r="Q29" s="24">
+        <v>63</v>
+      </c>
+      <c r="R29" s="25">
+        <v>61</v>
+      </c>
+      <c r="S29" s="30"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="27"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
@@ -2578,9 +2783,15 @@
       <c r="P30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="Q30" s="24">
+        <v>106</v>
+      </c>
+      <c r="R30" s="25">
+        <v>87</v>
+      </c>
+      <c r="S30" s="30"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="27"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
@@ -2600,10 +2811,15 @@
       <c r="P31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="S31" s="20"/>
+      <c r="Q31" s="24">
+        <v>430</v>
+      </c>
+      <c r="R31" s="25">
+        <v>241</v>
+      </c>
+      <c r="S31" s="30"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="27"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
@@ -2623,10 +2839,12 @@
       <c r="Q32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="R32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="31"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="28"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
@@ -2637,9 +2855,15 @@
       <c r="P33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q33" s="21" t="s">
-        <v>129</v>
-      </c>
+      <c r="Q33" s="25">
+        <v>167</v>
+      </c>
+      <c r="R33" s="26">
+        <v>396</v>
+      </c>
+      <c r="S33" s="30"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="27"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
@@ -2650,9 +2874,15 @@
       <c r="P34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q34" s="24">
+        <v>306</v>
+      </c>
+      <c r="R34" s="25">
+        <v>131</v>
+      </c>
+      <c r="S34" s="30"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="27"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
@@ -2666,6 +2896,12 @@
       <c r="Q35" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="R35" s="24">
+        <v>256</v>
+      </c>
+      <c r="S35" s="30"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="27"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
@@ -2679,6 +2915,12 @@
       <c r="Q36" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="R36" s="24">
+        <v>340</v>
+      </c>
+      <c r="S36" s="30"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="27"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
@@ -2689,9 +2931,15 @@
       <c r="P37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="Q37" s="24">
+        <v>188</v>
+      </c>
+      <c r="R37" s="26">
+        <v>221</v>
+      </c>
+      <c r="S37" s="30"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="27"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
@@ -2729,12 +2977,18 @@
       <c r="O38">
         <v>105</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="P38" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="Q38" s="24">
+        <v>164</v>
+      </c>
+      <c r="R38" s="24">
+        <v>164</v>
+      </c>
+      <c r="S38" s="30"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="27"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
@@ -2787,125 +3041,98 @@
       <c r="P39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q39" s="24">
+        <v>102</v>
+      </c>
+      <c r="R39" s="24">
+        <v>102</v>
+      </c>
+      <c r="S39" s="30"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="27"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>16</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40">
-        <v>16</v>
-      </c>
-      <c r="L40" s="3">
-        <v>16</v>
-      </c>
-      <c r="M40" s="3">
-        <v>16</v>
-      </c>
-      <c r="N40" s="10">
-        <v>16</v>
-      </c>
-      <c r="O40">
-        <v>16</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S40" s="31"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="27"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>13</v>
-      </c>
-      <c r="L41" s="4">
-        <v>17</v>
-      </c>
-      <c r="M41" s="6">
-        <v>13</v>
-      </c>
-      <c r="N41" s="11">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="L41" s="3">
+        <v>16</v>
+      </c>
+      <c r="M41" s="3">
+        <v>16</v>
+      </c>
+      <c r="N41" s="10">
+        <v>16</v>
       </c>
       <c r="O41">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Q41" s="24">
+        <v>16</v>
+      </c>
+      <c r="R41" s="24">
+        <v>16</v>
+      </c>
+      <c r="S41" s="30"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="27"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>61</v>
@@ -2937,13 +3164,13 @@
       <c r="K42">
         <v>13</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="4">
         <v>17</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>13</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="11">
         <v>13</v>
       </c>
       <c r="O42">
@@ -2952,70 +3179,82 @@
       <c r="P42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q42" s="24">
+        <v>13</v>
+      </c>
+      <c r="R42" s="24">
+        <v>13</v>
+      </c>
+      <c r="S42" s="30"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="27"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>16</v>
-      </c>
-      <c r="L43" s="4">
-        <v>20</v>
-      </c>
-      <c r="M43" s="6">
-        <v>16</v>
-      </c>
-      <c r="N43" s="11">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L43" s="3">
+        <v>17</v>
+      </c>
+      <c r="M43" s="7">
+        <v>13</v>
+      </c>
+      <c r="N43" s="10">
+        <v>13</v>
       </c>
       <c r="O43">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="Q43" s="24">
+        <v>13</v>
+      </c>
+      <c r="R43" s="24">
+        <v>13</v>
+      </c>
+      <c r="S43" s="30"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="27"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
@@ -3047,13 +3286,13 @@
       <c r="K44">
         <v>16</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="4">
         <v>20</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>16</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="11">
         <v>16</v>
       </c>
       <c r="O44">
@@ -3062,70 +3301,82 @@
       <c r="P44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q44" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q44" s="24">
+        <v>16</v>
+      </c>
+      <c r="R44" s="25">
+        <v>15</v>
+      </c>
+      <c r="S44" s="30"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="27"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>18</v>
-      </c>
-      <c r="L45" s="4">
-        <v>22</v>
-      </c>
-      <c r="M45" s="6">
-        <v>18</v>
-      </c>
-      <c r="N45" s="11">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="L45" s="3">
+        <v>20</v>
+      </c>
+      <c r="M45" s="7">
+        <v>16</v>
+      </c>
+      <c r="N45" s="10">
+        <v>16</v>
       </c>
       <c r="O45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Q45" s="24">
+        <v>16</v>
+      </c>
+      <c r="R45" s="25">
+        <v>15</v>
+      </c>
+      <c r="S45" s="30"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="27"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>56</v>
@@ -3157,13 +3408,13 @@
       <c r="K46">
         <v>18</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="4">
         <v>22</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>18</v>
       </c>
-      <c r="N46" s="10">
+      <c r="N46" s="11">
         <v>18</v>
       </c>
       <c r="O46">
@@ -3172,378 +3423,473 @@
       <c r="P46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
+      <c r="Q46" s="24">
+        <v>18</v>
+      </c>
+      <c r="R46" s="25">
+        <v>17</v>
+      </c>
+      <c r="S46" s="30"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="27"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="K47">
-        <v>20</v>
-      </c>
-      <c r="L47" s="4">
-        <v>20</v>
-      </c>
-      <c r="M47" s="4">
-        <v>20</v>
-      </c>
-      <c r="N47" s="11">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="L47" s="3">
+        <v>22</v>
+      </c>
+      <c r="M47" s="7">
+        <v>18</v>
+      </c>
+      <c r="N47" s="10">
+        <v>18</v>
       </c>
       <c r="O47">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="Q47" s="24">
+        <v>18</v>
+      </c>
+      <c r="R47" s="25">
+        <v>17</v>
+      </c>
+      <c r="S47" s="30"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="27"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K48">
-        <v>6</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6</v>
-      </c>
-      <c r="N48" s="10">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="L48" s="4">
+        <v>20</v>
+      </c>
+      <c r="M48" s="4">
+        <v>20</v>
+      </c>
+      <c r="N48" s="11">
+        <v>20</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>20</v>
+      </c>
+      <c r="R48" s="24">
+        <v>20</v>
+      </c>
+      <c r="S48" s="30"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="27"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6</v>
+      </c>
+      <c r="M49" s="3">
+        <v>6</v>
+      </c>
+      <c r="N49" s="10">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>6</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q49" s="24">
+        <v>6</v>
+      </c>
+      <c r="R49" s="26">
+        <v>9</v>
+      </c>
+      <c r="S49" s="30"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="27"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>10</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K49">
+      <c r="K50">
         <v>10</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L50" s="4">
         <v>10</v>
       </c>
-      <c r="M49" s="4">
+      <c r="M50" s="4">
         <v>10</v>
       </c>
-      <c r="N49" s="11">
+      <c r="N50" s="11">
         <v>10</v>
       </c>
-      <c r="O49">
+      <c r="O50">
         <v>10</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="Q50" s="24">
+        <v>10</v>
+      </c>
+      <c r="R50" s="24">
+        <v>10</v>
+      </c>
+      <c r="S50" s="30"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="27"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>16</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K50">
+      <c r="K51">
         <v>12</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L51" s="3">
         <v>12</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M51" s="3">
         <v>12</v>
       </c>
-      <c r="N50" s="10">
+      <c r="N51" s="10">
         <v>12</v>
       </c>
-      <c r="O50">
+      <c r="O51">
         <v>12</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q50" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="Q51" s="24">
+        <v>12</v>
+      </c>
+      <c r="R51" s="26">
+        <v>35</v>
+      </c>
+      <c r="S51" s="30"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="27"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>22</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K51">
+      <c r="K52">
         <v>15</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L52" s="4">
         <v>15</v>
       </c>
-      <c r="M51" s="4">
+      <c r="M52" s="4">
         <v>15</v>
       </c>
-      <c r="N51" s="16">
+      <c r="N52" s="16">
         <v>23</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O52" s="18">
         <v>22</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q51" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="Q52" s="24">
+        <v>22</v>
+      </c>
+      <c r="R52" s="26">
+        <v>27</v>
+      </c>
+      <c r="S52" s="30"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="27"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="3">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="3">
         <v>27</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M53" s="7">
         <v>23</v>
       </c>
-      <c r="N52" s="10">
+      <c r="N53" s="10">
         <v>23</v>
       </c>
-      <c r="O52">
+      <c r="O53">
         <v>23</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="Q53" s="24">
+        <v>23</v>
+      </c>
+      <c r="R53" s="26">
+        <v>25</v>
+      </c>
+      <c r="S53" s="30"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="27"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>27</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K54" s="1">
         <v>27</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L54" s="4">
         <v>27</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M54" s="4">
         <v>27</v>
       </c>
-      <c r="N53" s="11">
+      <c r="N54" s="11">
         <v>27</v>
       </c>
-      <c r="O53">
+      <c r="O54">
         <v>27</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="24">
+        <v>27</v>
+      </c>
+      <c r="R54" s="24">
+        <v>27</v>
+      </c>
+      <c r="S54" s="30"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="27"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -3552,6 +3898,52 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="Q57">
+        <f>SUM(Q41:Q54,Q37:Q39,Q33:Q34,Q2:Q31)</f>
+        <v>3875</v>
+      </c>
+      <c r="R57">
+        <f>SUM(R41:R54,R37:R39,R33:R34,R2:R31)</f>
+        <v>3729</v>
+      </c>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202FC08-0DAB-4317-A3EB-C8A1B2BACE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE0C35-3495-4624-B91C-4212A42A7EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="131">
   <si>
     <t>Имя файла</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>NEW_ERROR12.board</t>
+  </si>
+  <si>
+    <t>ERROR_6.board</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -595,14 +604,13 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1014,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E42" workbookViewId="0">
-      <selection activeCell="R70" sqref="R70"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,9 +1095,11 @@
       <c r="R1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
       <c r="T1" s="22"/>
-      <c r="U1" s="27"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1140,15 +1150,17 @@
       <c r="P2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2">
         <v>7</v>
       </c>
-      <c r="S2" s="30"/>
+      <c r="S2" s="27">
+        <v>7</v>
+      </c>
       <c r="T2" s="23"/>
-      <c r="U2" s="27"/>
+      <c r="U2" s="24"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
     </row>
@@ -1201,15 +1213,17 @@
       <c r="P3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3">
         <v>3</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="S3" s="30"/>
+      <c r="S3" s="27">
+        <v>3</v>
+      </c>
       <c r="T3" s="23"/>
-      <c r="U3" s="27"/>
+      <c r="U3" s="24"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
     </row>
@@ -1242,15 +1256,17 @@
       <c r="P4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="Q4" s="24">
+      <c r="Q4">
         <v>38</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="19">
         <v>39</v>
       </c>
-      <c r="S4" s="30"/>
+      <c r="S4" s="29">
+        <v>44</v>
+      </c>
       <c r="T4" s="23"/>
-      <c r="U4" s="27"/>
+      <c r="U4" s="24"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
     </row>
@@ -1303,15 +1319,17 @@
       <c r="P5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5">
         <v>22</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="18">
         <v>21</v>
       </c>
-      <c r="S5" s="30"/>
+      <c r="S5" s="29">
+        <v>24</v>
+      </c>
       <c r="T5" s="23"/>
-      <c r="U5" s="27"/>
+      <c r="U5" s="24"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
@@ -1364,15 +1382,17 @@
       <c r="P6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="R6" s="24">
+      <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6" s="30"/>
+      <c r="S6" s="27">
+        <v>3</v>
+      </c>
       <c r="T6" s="23"/>
-      <c r="U6" s="27"/>
+      <c r="U6" s="24"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
     </row>
@@ -1425,15 +1445,17 @@
       <c r="P7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7">
         <v>8</v>
       </c>
-      <c r="R7" s="24">
+      <c r="R7">
         <v>8</v>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="27">
+        <v>8</v>
+      </c>
       <c r="T7" s="23"/>
-      <c r="U7" s="27"/>
+      <c r="U7" s="24"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
@@ -1486,15 +1508,17 @@
       <c r="P8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8">
         <v>15</v>
       </c>
-      <c r="R8" s="24">
+      <c r="R8">
         <v>15</v>
       </c>
-      <c r="S8" s="30"/>
+      <c r="S8" s="27">
+        <v>15</v>
+      </c>
       <c r="T8" s="23"/>
-      <c r="U8" s="27"/>
+      <c r="U8" s="24"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
     </row>
@@ -1547,15 +1571,17 @@
       <c r="P9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9">
         <v>83</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9">
         <v>83</v>
       </c>
-      <c r="S9" s="30"/>
+      <c r="S9" s="27">
+        <v>83</v>
+      </c>
       <c r="T9" s="23"/>
-      <c r="U9" s="27"/>
+      <c r="U9" s="24"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
     </row>
@@ -1608,15 +1634,17 @@
       <c r="P10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10">
         <v>67</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10">
         <v>67</v>
       </c>
-      <c r="S10" s="30"/>
+      <c r="S10" s="27">
+        <v>67</v>
+      </c>
       <c r="T10" s="23"/>
-      <c r="U10" s="27"/>
+      <c r="U10" s="24"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
     </row>
@@ -1669,15 +1697,17 @@
       <c r="P11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11">
         <v>413</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11">
         <v>413</v>
       </c>
-      <c r="S11" s="30"/>
+      <c r="S11" s="27">
+        <v>413</v>
+      </c>
       <c r="T11" s="23"/>
-      <c r="U11" s="27"/>
+      <c r="U11" s="24"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
     </row>
@@ -1730,15 +1760,17 @@
       <c r="P12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="24">
+      <c r="Q12">
         <v>155</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12">
         <v>155</v>
       </c>
-      <c r="S12" s="30"/>
+      <c r="S12" s="27">
+        <v>155</v>
+      </c>
       <c r="T12" s="23"/>
-      <c r="U12" s="27"/>
+      <c r="U12" s="24"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
     </row>
@@ -1791,15 +1823,17 @@
       <c r="P13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13">
         <v>147</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13">
         <v>147</v>
       </c>
-      <c r="S13" s="30"/>
+      <c r="S13" s="27">
+        <v>147</v>
+      </c>
       <c r="T13" s="23"/>
-      <c r="U13" s="27"/>
+      <c r="U13" s="24"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
@@ -1852,15 +1886,17 @@
       <c r="P14" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="Q14">
         <v>391</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="18">
         <v>334</v>
       </c>
-      <c r="S14" s="30"/>
+      <c r="S14" s="27">
+        <v>334</v>
+      </c>
       <c r="T14" s="23"/>
-      <c r="U14" s="27"/>
+      <c r="U14" s="24"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
@@ -1913,15 +1949,17 @@
       <c r="P15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15">
         <v>128</v>
       </c>
-      <c r="R15" s="24">
+      <c r="R15">
         <v>128</v>
       </c>
-      <c r="S15" s="30"/>
+      <c r="S15" s="27">
+        <v>128</v>
+      </c>
       <c r="T15" s="23"/>
-      <c r="U15" s="27"/>
+      <c r="U15" s="24"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
@@ -1974,15 +2012,17 @@
       <c r="P16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="Q16">
         <v>49</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="19">
         <v>70</v>
       </c>
-      <c r="S16" s="30"/>
+      <c r="S16" s="30">
+        <v>68</v>
+      </c>
       <c r="T16" s="23"/>
-      <c r="U16" s="27"/>
+      <c r="U16" s="24"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
@@ -2035,15 +2075,17 @@
       <c r="P17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="Q17">
         <v>68</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17" s="18">
         <v>59</v>
       </c>
-      <c r="S17" s="30"/>
+      <c r="S17" s="27">
+        <v>59</v>
+      </c>
       <c r="T17" s="23"/>
-      <c r="U17" s="27"/>
+      <c r="U17" s="24"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
@@ -2096,15 +2138,17 @@
       <c r="P18" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="24">
+      <c r="Q18">
         <v>42</v>
       </c>
-      <c r="R18" s="26">
-        <v>43</v>
-      </c>
-      <c r="S18" s="30"/>
+      <c r="R18" s="19">
+        <v>43</v>
+      </c>
+      <c r="S18" s="29">
+        <v>45</v>
+      </c>
       <c r="T18" s="23"/>
-      <c r="U18" s="27"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
@@ -2151,15 +2195,17 @@
       <c r="P19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q19" s="24">
+      <c r="Q19">
         <v>50</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19" s="18">
         <v>47</v>
       </c>
-      <c r="S19" s="30"/>
+      <c r="S19" s="27">
+        <v>47</v>
+      </c>
       <c r="T19" s="23"/>
-      <c r="U19" s="27"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
     </row>
@@ -2206,15 +2252,17 @@
       <c r="P20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20">
         <v>50</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20" s="18">
         <v>49</v>
       </c>
-      <c r="S20" s="30"/>
+      <c r="S20" s="29">
+        <v>51</v>
+      </c>
       <c r="T20" s="23"/>
-      <c r="U20" s="27"/>
+      <c r="U20" s="24"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
@@ -2267,15 +2315,17 @@
       <c r="P21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="Q21">
         <v>44</v>
       </c>
-      <c r="R21" s="26">
+      <c r="R21" s="19">
         <v>49</v>
       </c>
-      <c r="S21" s="30"/>
+      <c r="S21" s="27">
+        <v>49</v>
+      </c>
       <c r="T21" s="23"/>
-      <c r="U21" s="27"/>
+      <c r="U21" s="24"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
     </row>
@@ -2328,15 +2378,17 @@
       <c r="P22" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22">
         <v>55</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22" s="18">
         <v>46</v>
       </c>
-      <c r="S22" s="30"/>
+      <c r="S22" s="27">
+        <v>46</v>
+      </c>
       <c r="T22" s="23"/>
-      <c r="U22" s="27"/>
+      <c r="U22" s="24"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
@@ -2389,15 +2441,17 @@
       <c r="P23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="Q23">
         <v>96</v>
       </c>
-      <c r="R23" s="24">
+      <c r="R23">
         <v>96</v>
       </c>
-      <c r="S23" s="30"/>
+      <c r="S23" s="27">
+        <v>96</v>
+      </c>
       <c r="T23" s="23"/>
-      <c r="U23" s="27"/>
+      <c r="U23" s="24"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
     </row>
@@ -2450,15 +2504,17 @@
       <c r="P24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="Q24">
         <v>18</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24">
         <v>18</v>
       </c>
-      <c r="S24" s="30"/>
+      <c r="S24" s="27">
+        <v>18</v>
+      </c>
       <c r="T24" s="23"/>
-      <c r="U24" s="27"/>
+      <c r="U24" s="24"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
     </row>
@@ -2511,15 +2567,17 @@
       <c r="P25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q25" s="24">
+      <c r="Q25">
         <v>15</v>
       </c>
-      <c r="R25" s="24">
+      <c r="R25">
         <v>15</v>
       </c>
-      <c r="S25" s="30"/>
+      <c r="S25" s="27">
+        <v>15</v>
+      </c>
       <c r="T25" s="23"/>
-      <c r="U25" s="27"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
     </row>
@@ -2572,15 +2630,17 @@
       <c r="P26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26">
         <v>51</v>
       </c>
-      <c r="R26" s="24">
+      <c r="R26">
         <v>51</v>
       </c>
-      <c r="S26" s="30"/>
+      <c r="S26" s="27">
+        <v>51</v>
+      </c>
       <c r="T26" s="23"/>
-      <c r="U26" s="27"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
@@ -2633,15 +2693,17 @@
       <c r="P27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="24">
+      <c r="Q27">
         <v>32</v>
       </c>
-      <c r="R27" s="24">
+      <c r="R27">
         <v>32</v>
       </c>
-      <c r="S27" s="30"/>
+      <c r="S27" s="27">
+        <v>32</v>
+      </c>
       <c r="T27" s="23"/>
-      <c r="U27" s="27"/>
+      <c r="U27" s="24"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
@@ -2694,15 +2756,17 @@
       <c r="P28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q28" s="24">
+      <c r="Q28">
         <v>69</v>
       </c>
-      <c r="R28" s="24">
+      <c r="R28">
         <v>69</v>
       </c>
-      <c r="S28" s="30"/>
+      <c r="S28" s="27">
+        <v>69</v>
+      </c>
       <c r="T28" s="23"/>
-      <c r="U28" s="27"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
@@ -2755,15 +2819,17 @@
       <c r="P29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="Q29" s="24">
+      <c r="Q29">
         <v>63</v>
       </c>
-      <c r="R29" s="25">
+      <c r="R29" s="18">
         <v>61</v>
       </c>
-      <c r="S29" s="30"/>
+      <c r="S29" s="28">
+        <v>593</v>
+      </c>
       <c r="T29" s="23"/>
-      <c r="U29" s="27"/>
+      <c r="U29" s="24"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
@@ -2783,15 +2849,17 @@
       <c r="P30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30">
         <v>106</v>
       </c>
-      <c r="R30" s="25">
+      <c r="R30" s="18">
         <v>87</v>
       </c>
-      <c r="S30" s="30"/>
+      <c r="S30" s="27">
+        <v>87</v>
+      </c>
       <c r="T30" s="23"/>
-      <c r="U30" s="27"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
@@ -2811,15 +2879,17 @@
       <c r="P31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31">
         <v>430</v>
       </c>
-      <c r="R31" s="25">
+      <c r="R31" s="18">
         <v>241</v>
       </c>
-      <c r="S31" s="30"/>
+      <c r="S31" s="27">
+        <v>241</v>
+      </c>
       <c r="T31" s="23"/>
-      <c r="U31" s="27"/>
+      <c r="U31" s="24"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
@@ -2842,9 +2912,11 @@
       <c r="R32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S32" s="31"/>
+      <c r="S32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="T32" s="23"/>
-      <c r="U32" s="28"/>
+      <c r="U32" s="25"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
     </row>
@@ -2855,15 +2927,17 @@
       <c r="P33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="Q33" s="25">
+      <c r="Q33" s="18">
         <v>167</v>
       </c>
-      <c r="R33" s="26">
+      <c r="R33" s="19">
         <v>396</v>
       </c>
-      <c r="S33" s="30"/>
+      <c r="S33" s="30">
+        <v>349</v>
+      </c>
       <c r="T33" s="23"/>
-      <c r="U33" s="27"/>
+      <c r="U33" s="24"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
     </row>
@@ -2874,15 +2948,17 @@
       <c r="P34" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Q34" s="24">
+      <c r="Q34">
         <v>306</v>
       </c>
-      <c r="R34" s="25">
+      <c r="R34" s="18">
         <v>131</v>
       </c>
-      <c r="S34" s="30"/>
+      <c r="S34" s="27">
+        <v>131</v>
+      </c>
       <c r="T34" s="23"/>
-      <c r="U34" s="27"/>
+      <c r="U34" s="24"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
@@ -2896,12 +2972,14 @@
       <c r="Q35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35">
         <v>256</v>
       </c>
-      <c r="S35" s="30"/>
+      <c r="S35" s="29">
+        <v>234</v>
+      </c>
       <c r="T35" s="23"/>
-      <c r="U35" s="27"/>
+      <c r="U35" s="24"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
     </row>
@@ -2915,12 +2993,14 @@
       <c r="Q36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R36" s="24">
+      <c r="R36">
         <v>340</v>
       </c>
-      <c r="S36" s="30"/>
+      <c r="S36" s="30">
+        <v>308</v>
+      </c>
       <c r="T36" s="23"/>
-      <c r="U36" s="27"/>
+      <c r="U36" s="24"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
@@ -2931,269 +3011,233 @@
       <c r="P37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37">
         <v>188</v>
       </c>
-      <c r="R37" s="26">
+      <c r="R37" s="19">
         <v>221</v>
       </c>
-      <c r="S37" s="30"/>
+      <c r="S37" s="30">
+        <v>190</v>
+      </c>
       <c r="T37" s="23"/>
-      <c r="U37" s="27"/>
+      <c r="U37" s="24"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38">
-        <v>105</v>
-      </c>
-      <c r="L38" s="3">
-        <v>105</v>
-      </c>
-      <c r="M38" s="3">
-        <v>105</v>
-      </c>
-      <c r="N38" s="10">
-        <v>105</v>
-      </c>
-      <c r="O38">
-        <v>105</v>
-      </c>
-      <c r="P38" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q38" s="24">
-        <v>164</v>
-      </c>
-      <c r="R38" s="24">
-        <v>164</v>
-      </c>
-      <c r="S38" s="30"/>
+        <v>130</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="27">
+        <v>199</v>
+      </c>
       <c r="T38" s="23"/>
-      <c r="U38" s="27"/>
+      <c r="U38" s="24"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39">
-        <v>102</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="K39">
-        <v>102</v>
-      </c>
-      <c r="L39" s="4">
-        <v>102</v>
-      </c>
-      <c r="M39" s="4">
-        <v>102</v>
-      </c>
-      <c r="N39" s="11">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="L39" s="3">
+        <v>105</v>
+      </c>
+      <c r="M39" s="3">
+        <v>105</v>
+      </c>
+      <c r="N39" s="10">
+        <v>105</v>
       </c>
       <c r="O39">
-        <v>102</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q39" s="24">
-        <v>102</v>
-      </c>
-      <c r="R39" s="24">
-        <v>102</v>
-      </c>
-      <c r="S39" s="30"/>
+        <v>105</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q39">
+        <v>164</v>
+      </c>
+      <c r="R39">
+        <v>164</v>
+      </c>
+      <c r="S39" s="27">
+        <v>164</v>
+      </c>
       <c r="T39" s="23"/>
-      <c r="U39" s="27"/>
+      <c r="U39" s="24"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S40" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>102</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40">
+        <v>102</v>
+      </c>
+      <c r="L40" s="4">
+        <v>102</v>
+      </c>
+      <c r="M40" s="4">
+        <v>102</v>
+      </c>
+      <c r="N40" s="11">
+        <v>102</v>
+      </c>
+      <c r="O40">
+        <v>102</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40">
+        <v>102</v>
+      </c>
+      <c r="R40">
+        <v>102</v>
+      </c>
+      <c r="S40" s="27">
+        <v>102</v>
+      </c>
       <c r="T40" s="23"/>
-      <c r="U40" s="27"/>
+      <c r="U40" s="24"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41">
-        <v>16</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41">
-        <v>16</v>
-      </c>
-      <c r="L41" s="3">
-        <v>16</v>
-      </c>
-      <c r="M41" s="3">
-        <v>16</v>
-      </c>
-      <c r="N41" s="10">
-        <v>16</v>
-      </c>
-      <c r="O41">
-        <v>16</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q41" s="24">
-        <v>16</v>
-      </c>
-      <c r="R41" s="24">
-        <v>16</v>
-      </c>
-      <c r="S41" s="30"/>
+        <v>129</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="T41" s="23"/>
-      <c r="U41" s="27"/>
+      <c r="U41" s="24"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>13</v>
-      </c>
-      <c r="L42" s="4">
-        <v>17</v>
-      </c>
-      <c r="M42" s="6">
-        <v>13</v>
-      </c>
-      <c r="N42" s="11">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="L42" s="3">
+        <v>16</v>
+      </c>
+      <c r="M42" s="3">
+        <v>16</v>
+      </c>
+      <c r="N42" s="10">
+        <v>16</v>
       </c>
       <c r="O42">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q42" s="24">
-        <v>13</v>
-      </c>
-      <c r="R42" s="24">
-        <v>13</v>
-      </c>
-      <c r="S42" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+      <c r="R42">
+        <v>16</v>
+      </c>
+      <c r="S42" s="27">
+        <v>16</v>
+      </c>
       <c r="T42" s="23"/>
-      <c r="U42" s="27"/>
+      <c r="U42" s="24"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>61</v>
@@ -3225,13 +3269,13 @@
       <c r="K43">
         <v>13</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="4">
         <v>17</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="6">
         <v>13</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="11">
         <v>13</v>
       </c>
       <c r="O43">
@@ -3240,82 +3284,86 @@
       <c r="P43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q43" s="24">
+      <c r="Q43">
         <v>13</v>
       </c>
-      <c r="R43" s="24">
+      <c r="R43">
         <v>13</v>
       </c>
-      <c r="S43" s="30"/>
+      <c r="S43" s="27">
+        <v>13</v>
+      </c>
       <c r="T43" s="23"/>
-      <c r="U43" s="27"/>
+      <c r="U43" s="24"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>16</v>
-      </c>
-      <c r="L44" s="4">
-        <v>20</v>
-      </c>
-      <c r="M44" s="6">
-        <v>16</v>
-      </c>
-      <c r="N44" s="11">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="L44" s="3">
+        <v>17</v>
+      </c>
+      <c r="M44" s="7">
+        <v>13</v>
+      </c>
+      <c r="N44" s="10">
+        <v>13</v>
       </c>
       <c r="O44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q44" s="24">
-        <v>16</v>
-      </c>
-      <c r="R44" s="25">
-        <v>15</v>
-      </c>
-      <c r="S44" s="30"/>
+        <v>61</v>
+      </c>
+      <c r="Q44">
+        <v>13</v>
+      </c>
+      <c r="R44">
+        <v>13</v>
+      </c>
+      <c r="S44" s="27">
+        <v>13</v>
+      </c>
       <c r="T44" s="23"/>
-      <c r="U44" s="27"/>
+      <c r="U44" s="24"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
@@ -3347,13 +3395,13 @@
       <c r="K45">
         <v>16</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="4">
         <v>20</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>16</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="11">
         <v>16</v>
       </c>
       <c r="O45">
@@ -3362,82 +3410,86 @@
       <c r="P45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q45" s="24">
+      <c r="Q45">
         <v>16</v>
       </c>
-      <c r="R45" s="25">
+      <c r="R45" s="18">
         <v>15</v>
       </c>
-      <c r="S45" s="30"/>
+      <c r="S45" s="27">
+        <v>15</v>
+      </c>
       <c r="T45" s="23"/>
-      <c r="U45" s="27"/>
+      <c r="U45" s="24"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>18</v>
-      </c>
-      <c r="L46" s="4">
-        <v>22</v>
-      </c>
-      <c r="M46" s="6">
-        <v>18</v>
-      </c>
-      <c r="N46" s="11">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="L46" s="3">
+        <v>20</v>
+      </c>
+      <c r="M46" s="7">
+        <v>16</v>
+      </c>
+      <c r="N46" s="10">
+        <v>16</v>
       </c>
       <c r="O46">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q46" s="24">
-        <v>18</v>
-      </c>
-      <c r="R46" s="25">
-        <v>17</v>
-      </c>
-      <c r="S46" s="30"/>
+        <v>46</v>
+      </c>
+      <c r="Q46">
+        <v>16</v>
+      </c>
+      <c r="R46" s="18">
+        <v>15</v>
+      </c>
+      <c r="S46" s="27">
+        <v>15</v>
+      </c>
       <c r="T46" s="23"/>
-      <c r="U46" s="27"/>
+      <c r="U46" s="24"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>56</v>
@@ -3469,13 +3521,13 @@
       <c r="K47">
         <v>18</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="4">
         <v>22</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="6">
         <v>18</v>
       </c>
-      <c r="N47" s="10">
+      <c r="N47" s="11">
         <v>18</v>
       </c>
       <c r="O47">
@@ -3484,422 +3536,486 @@
       <c r="P47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q47" s="24">
+      <c r="Q47">
         <v>18</v>
       </c>
-      <c r="R47" s="25">
+      <c r="R47" s="18">
         <v>17</v>
       </c>
-      <c r="S47" s="30"/>
+      <c r="S47" s="29">
+        <v>18</v>
+      </c>
       <c r="T47" s="23"/>
-      <c r="U47" s="27"/>
+      <c r="U47" s="24"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>20</v>
-      </c>
-      <c r="L48" s="4">
-        <v>20</v>
-      </c>
-      <c r="M48" s="4">
-        <v>20</v>
-      </c>
-      <c r="N48" s="11">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="L48" s="3">
+        <v>22</v>
+      </c>
+      <c r="M48" s="7">
+        <v>18</v>
+      </c>
+      <c r="N48" s="10">
+        <v>18</v>
       </c>
       <c r="O48">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q48" s="24">
-        <v>20</v>
-      </c>
-      <c r="R48" s="24">
-        <v>20</v>
-      </c>
-      <c r="S48" s="30"/>
+        <v>56</v>
+      </c>
+      <c r="Q48">
+        <v>18</v>
+      </c>
+      <c r="R48" s="18">
+        <v>17</v>
+      </c>
+      <c r="S48" s="29">
+        <v>18</v>
+      </c>
       <c r="T48" s="23"/>
-      <c r="U48" s="27"/>
+      <c r="U48" s="24"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>6</v>
-      </c>
-      <c r="L49" s="3">
-        <v>6</v>
-      </c>
-      <c r="M49" s="3">
-        <v>6</v>
-      </c>
-      <c r="N49" s="10">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="L49" s="4">
+        <v>20</v>
+      </c>
+      <c r="M49" s="4">
+        <v>20</v>
+      </c>
+      <c r="N49" s="11">
+        <v>20</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q49" s="24">
-        <v>6</v>
-      </c>
-      <c r="R49" s="26">
-        <v>9</v>
-      </c>
-      <c r="S49" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="Q49">
+        <v>20</v>
+      </c>
+      <c r="R49">
+        <v>20</v>
+      </c>
+      <c r="S49" s="27">
+        <v>20</v>
+      </c>
       <c r="T49" s="23"/>
-      <c r="U49" s="27"/>
+      <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50">
-        <v>10</v>
-      </c>
-      <c r="L50" s="4">
-        <v>10</v>
-      </c>
-      <c r="M50" s="4">
-        <v>10</v>
-      </c>
-      <c r="N50" s="11">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="L50" s="3">
+        <v>6</v>
+      </c>
+      <c r="M50" s="3">
+        <v>6</v>
+      </c>
+      <c r="N50" s="10">
+        <v>6</v>
       </c>
       <c r="O50">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q50" s="24">
-        <v>10</v>
-      </c>
-      <c r="R50" s="24">
-        <v>10</v>
-      </c>
-      <c r="S50" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="Q50">
+        <v>6</v>
+      </c>
+      <c r="R50" s="19">
+        <v>9</v>
+      </c>
+      <c r="S50" s="27">
+        <v>9</v>
+      </c>
       <c r="T50" s="23"/>
-      <c r="U50" s="27"/>
+      <c r="U50" s="24"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="K51">
-        <v>12</v>
-      </c>
-      <c r="L51" s="3">
-        <v>12</v>
-      </c>
-      <c r="M51" s="3">
-        <v>12</v>
-      </c>
-      <c r="N51" s="10">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="L51" s="4">
+        <v>10</v>
+      </c>
+      <c r="M51" s="4">
+        <v>10</v>
+      </c>
+      <c r="N51" s="11">
+        <v>10</v>
       </c>
       <c r="O51">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q51" s="24">
-        <v>12</v>
-      </c>
-      <c r="R51" s="26">
-        <v>35</v>
-      </c>
-      <c r="S51" s="30"/>
+        <v>64</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51" s="27">
+        <v>10</v>
+      </c>
       <c r="T51" s="23"/>
-      <c r="U51" s="27"/>
+      <c r="U51" s="24"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>15</v>
-      </c>
-      <c r="L52" s="4">
-        <v>15</v>
-      </c>
-      <c r="M52" s="4">
-        <v>15</v>
-      </c>
-      <c r="N52" s="16">
-        <v>23</v>
-      </c>
-      <c r="O52" s="18">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12</v>
+      </c>
+      <c r="M52" s="3">
+        <v>12</v>
+      </c>
+      <c r="N52" s="10">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <v>12</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q52" s="24">
-        <v>22</v>
-      </c>
-      <c r="R52" s="26">
-        <v>27</v>
-      </c>
-      <c r="S52" s="30"/>
+        <v>87</v>
+      </c>
+      <c r="Q52">
+        <v>12</v>
+      </c>
+      <c r="R52" s="19">
+        <v>35</v>
+      </c>
+      <c r="S52" s="27">
+        <v>35</v>
+      </c>
       <c r="T52" s="23"/>
-      <c r="U52" s="27"/>
+      <c r="U52" s="24"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="3">
+        <v>39</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>22</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53" s="4">
+        <v>15</v>
+      </c>
+      <c r="M53" s="4">
+        <v>15</v>
+      </c>
+      <c r="N53" s="16">
+        <v>23</v>
+      </c>
+      <c r="O53" s="18">
+        <v>22</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q53">
+        <v>22</v>
+      </c>
+      <c r="R53" s="19">
         <v>27</v>
       </c>
-      <c r="M53" s="7">
-        <v>23</v>
-      </c>
-      <c r="N53" s="10">
-        <v>23</v>
-      </c>
-      <c r="O53">
-        <v>23</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q53" s="24">
-        <v>23</v>
-      </c>
-      <c r="R53" s="26">
-        <v>25</v>
-      </c>
-      <c r="S53" s="30"/>
+      <c r="S53" s="27">
+        <v>27</v>
+      </c>
       <c r="T53" s="23"/>
-      <c r="U53" s="27"/>
+      <c r="U53" s="24"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="3">
+        <v>27</v>
+      </c>
+      <c r="M54" s="7">
+        <v>23</v>
+      </c>
+      <c r="N54" s="10">
+        <v>23</v>
+      </c>
+      <c r="O54">
+        <v>23</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q54">
+        <v>23</v>
+      </c>
+      <c r="R54" s="19">
+        <v>25</v>
+      </c>
+      <c r="S54" s="30">
+        <v>22</v>
+      </c>
+      <c r="T54" s="23"/>
+      <c r="U54" s="24"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>27</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K55" s="1">
         <v>27</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L55" s="4">
         <v>27</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M55" s="4">
         <v>27</v>
       </c>
-      <c r="N54" s="11">
+      <c r="N55" s="11">
         <v>27</v>
       </c>
-      <c r="O54">
+      <c r="O55">
         <v>27</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q54" s="24">
+      <c r="Q55">
         <v>27</v>
       </c>
-      <c r="R54" s="24">
+      <c r="R55">
         <v>27</v>
       </c>
-      <c r="S54" s="30"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="27"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
+      <c r="S55" s="27">
+        <v>27</v>
+      </c>
+      <c r="T55" s="26"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
@@ -3910,8 +4026,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
+      <c r="T56" s="26"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
@@ -3922,28 +4037,36 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="Q57">
-        <f>SUM(Q41:Q54,Q37:Q39,Q33:Q34,Q2:Q31)</f>
+      <c r="T57" s="26"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="Q58">
+        <f>SUM(Q42:Q55,Q39:Q40,Q33:Q34,Q2:Q31,Q37)</f>
         <v>3875</v>
       </c>
-      <c r="R57">
-        <f>SUM(R41:R54,R37:R39,R33:R34,R2:R31)</f>
+      <c r="R58">
+        <f>SUM(R42:R55,R39:R40,R33:R34,R2:R31,R37)</f>
         <v>3729</v>
       </c>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
+      <c r="S58">
+        <f>SUM(S42:S55,S39:S40,S33:S34,S2:S31,S37)</f>
+        <v>4192</v>
+      </c>
+      <c r="T58" s="26"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
+      <c r="T59" s="26"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
+      <c r="T60" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE0C35-3495-4624-B91C-4212A42A7EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C879E-A83F-409C-9F4F-2946EB3F1E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +514,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -562,24 +568,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -604,13 +597,8 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1020,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U50" sqref="U50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1028,7 @@
     <col min="16" max="23" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,10 +1086,12 @@
       <c r="S1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="24"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1156,15 +1146,16 @@
       <c r="R2">
         <v>7</v>
       </c>
-      <c r="S2" s="27">
+      <c r="S2">
         <v>7</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T2" s="1"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="22"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1219,15 +1210,16 @@
       <c r="R3">
         <v>3</v>
       </c>
-      <c r="S3" s="27">
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T3" s="1"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="22"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>103</v>
       </c>
@@ -1262,15 +1254,16 @@
       <c r="R4" s="19">
         <v>39</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="19">
         <v>44</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T4" s="1"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1325,15 +1318,16 @@
       <c r="R5" s="18">
         <v>21</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="19">
         <v>24</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T5" s="1"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="22"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1388,15 +1382,16 @@
       <c r="R6">
         <v>3</v>
       </c>
-      <c r="S6" s="27">
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="T6" s="23"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T6" s="1"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="22"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1451,15 +1446,16 @@
       <c r="R7">
         <v>8</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7">
         <v>8</v>
       </c>
-      <c r="T7" s="23"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T7" s="1"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1514,15 +1510,16 @@
       <c r="R8">
         <v>15</v>
       </c>
-      <c r="S8" s="27">
+      <c r="S8">
         <v>15</v>
       </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T8" s="1"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="22"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1577,15 +1574,16 @@
       <c r="R9">
         <v>83</v>
       </c>
-      <c r="S9" s="27">
+      <c r="S9">
         <v>83</v>
       </c>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T9" s="25"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="22"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1640,15 +1638,16 @@
       <c r="R10">
         <v>67</v>
       </c>
-      <c r="S10" s="27">
+      <c r="S10">
         <v>67</v>
       </c>
-      <c r="T10" s="23"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T10" s="1"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="22"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1703,15 +1702,16 @@
       <c r="R11">
         <v>413</v>
       </c>
-      <c r="S11" s="27">
+      <c r="S11">
         <v>413</v>
       </c>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T11" s="1"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="22"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1766,15 +1766,16 @@
       <c r="R12">
         <v>155</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12">
         <v>155</v>
       </c>
-      <c r="T12" s="23"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T12" s="1"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1829,15 +1830,16 @@
       <c r="R13">
         <v>147</v>
       </c>
-      <c r="S13" s="27">
+      <c r="S13">
         <v>147</v>
       </c>
-      <c r="T13" s="23"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T13" s="1"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="22"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1892,15 +1894,16 @@
       <c r="R14" s="18">
         <v>334</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14">
         <v>334</v>
       </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T14" s="25"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="22"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1955,15 +1958,16 @@
       <c r="R15">
         <v>128</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15">
         <v>128</v>
       </c>
-      <c r="T15" s="23"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T15" s="1"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="22"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2018,15 +2022,16 @@
       <c r="R16" s="19">
         <v>70</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="18">
         <v>68</v>
       </c>
-      <c r="T16" s="23"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T16" s="25"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="22"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2081,15 +2086,16 @@
       <c r="R17" s="18">
         <v>59</v>
       </c>
-      <c r="S17" s="27">
+      <c r="S17">
         <v>59</v>
       </c>
-      <c r="T17" s="23"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T17" s="25"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="22"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2144,15 +2150,16 @@
       <c r="R18" s="19">
         <v>43</v>
       </c>
-      <c r="S18" s="29">
+      <c r="S18" s="19">
         <v>45</v>
       </c>
-      <c r="T18" s="23"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T18" s="25"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="22"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
@@ -2201,15 +2208,16 @@
       <c r="R19" s="18">
         <v>47</v>
       </c>
-      <c r="S19" s="27">
+      <c r="S19">
         <v>47</v>
       </c>
-      <c r="T19" s="23"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T19" s="1"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="22"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>73</v>
       </c>
@@ -2258,15 +2266,16 @@
       <c r="R20" s="18">
         <v>49</v>
       </c>
-      <c r="S20" s="29">
+      <c r="S20" s="19">
         <v>51</v>
       </c>
-      <c r="T20" s="23"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T20" s="1"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="22"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2321,15 +2330,16 @@
       <c r="R21" s="19">
         <v>49</v>
       </c>
-      <c r="S21" s="27">
+      <c r="S21">
         <v>49</v>
       </c>
-      <c r="T21" s="23"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T21" s="1"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="22"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -2384,15 +2394,16 @@
       <c r="R22" s="18">
         <v>46</v>
       </c>
-      <c r="S22" s="27">
+      <c r="S22">
         <v>46</v>
       </c>
-      <c r="T22" s="23"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T22" s="1"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="22"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -2447,15 +2458,16 @@
       <c r="R23">
         <v>96</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23">
         <v>96</v>
       </c>
-      <c r="T23" s="23"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T23" s="25"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="22"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -2510,15 +2522,16 @@
       <c r="R24">
         <v>18</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24">
         <v>18</v>
       </c>
-      <c r="T24" s="23"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T24" s="1"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="22"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -2573,15 +2586,16 @@
       <c r="R25">
         <v>15</v>
       </c>
-      <c r="S25" s="27">
+      <c r="S25">
         <v>15</v>
       </c>
-      <c r="T25" s="23"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T25" s="25"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="22"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -2636,15 +2650,16 @@
       <c r="R26">
         <v>51</v>
       </c>
-      <c r="S26" s="27">
+      <c r="S26">
         <v>51</v>
       </c>
-      <c r="T26" s="23"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T26" s="1"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="22"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -2699,15 +2714,16 @@
       <c r="R27">
         <v>32</v>
       </c>
-      <c r="S27" s="27">
+      <c r="S27">
         <v>32</v>
       </c>
-      <c r="T27" s="23"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T27" s="25"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="22"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -2762,15 +2778,16 @@
       <c r="R28">
         <v>69</v>
       </c>
-      <c r="S28" s="27">
+      <c r="S28">
         <v>69</v>
       </c>
-      <c r="T28" s="23"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T28" s="1"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="22"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2825,15 +2842,16 @@
       <c r="R29" s="18">
         <v>61</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="24">
         <v>593</v>
       </c>
-      <c r="T29" s="23"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T29" s="1"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="22"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>106</v>
       </c>
@@ -2855,15 +2873,16 @@
       <c r="R30" s="18">
         <v>87</v>
       </c>
-      <c r="S30" s="27">
+      <c r="S30">
         <v>87</v>
       </c>
-      <c r="T30" s="23"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T30" s="25"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="22"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>107</v>
       </c>
@@ -2885,15 +2904,16 @@
       <c r="R31" s="18">
         <v>241</v>
       </c>
-      <c r="S31" s="27">
+      <c r="S31">
         <v>241</v>
       </c>
-      <c r="T31" s="23"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T31" s="25"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="22"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
@@ -2915,12 +2935,13 @@
       <c r="S32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="23"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T32" s="1"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="22"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -2933,15 +2954,16 @@
       <c r="R33" s="19">
         <v>396</v>
       </c>
-      <c r="S33" s="30">
+      <c r="S33" s="18">
         <v>349</v>
       </c>
-      <c r="T33" s="23"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T33" s="1"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="22"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>111</v>
       </c>
@@ -2954,15 +2976,16 @@
       <c r="R34" s="18">
         <v>131</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34">
         <v>131</v>
       </c>
-      <c r="T34" s="23"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T34" s="1"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="22"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>126</v>
       </c>
@@ -2975,15 +2998,16 @@
       <c r="R35">
         <v>256</v>
       </c>
-      <c r="S35" s="29">
+      <c r="S35" s="19">
         <v>234</v>
       </c>
-      <c r="T35" s="23"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T35" s="1"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="22"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -2996,15 +3020,16 @@
       <c r="R36">
         <v>340</v>
       </c>
-      <c r="S36" s="30">
+      <c r="S36" s="18">
         <v>308</v>
       </c>
-      <c r="T36" s="23"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T36" s="1"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="22"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
@@ -3017,30 +3042,32 @@
       <c r="R37" s="19">
         <v>221</v>
       </c>
-      <c r="S37" s="30">
+      <c r="S37" s="18">
         <v>190</v>
       </c>
-      <c r="T37" s="23"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T37" s="1"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="22"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S38" s="27">
+      <c r="S38">
         <v>199</v>
       </c>
-      <c r="T38" s="23"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T38" s="1"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="22"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -3083,15 +3110,16 @@
       <c r="R39">
         <v>164</v>
       </c>
-      <c r="S39" s="27">
+      <c r="S39">
         <v>164</v>
       </c>
-      <c r="T39" s="23"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T39" s="25"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="22"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -3146,15 +3174,16 @@
       <c r="R40">
         <v>102</v>
       </c>
-      <c r="S40" s="27">
+      <c r="S40">
         <v>102</v>
       </c>
-      <c r="T40" s="23"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T40" s="1"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="22"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>129</v>
       </c>
@@ -3167,12 +3196,13 @@
       <c r="S41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="23"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T41" s="1"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="22"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
@@ -3227,15 +3257,16 @@
       <c r="R42">
         <v>16</v>
       </c>
-      <c r="S42" s="27">
+      <c r="S42">
         <v>16</v>
       </c>
-      <c r="T42" s="23"/>
-      <c r="U42" s="24"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T42" s="1"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="22"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
@@ -3290,15 +3321,16 @@
       <c r="R43">
         <v>13</v>
       </c>
-      <c r="S43" s="27">
+      <c r="S43">
         <v>13</v>
       </c>
-      <c r="T43" s="23"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T43" s="25"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="22"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>30</v>
       </c>
@@ -3353,15 +3385,16 @@
       <c r="R44">
         <v>13</v>
       </c>
-      <c r="S44" s="27">
+      <c r="S44">
         <v>13</v>
       </c>
-      <c r="T44" s="23"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T44" s="25"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="22"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>31</v>
       </c>
@@ -3416,15 +3449,16 @@
       <c r="R45" s="18">
         <v>15</v>
       </c>
-      <c r="S45" s="27">
+      <c r="S45">
         <v>15</v>
       </c>
-      <c r="T45" s="23"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T45" s="1"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="22"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -3479,15 +3513,16 @@
       <c r="R46" s="18">
         <v>15</v>
       </c>
-      <c r="S46" s="27">
+      <c r="S46">
         <v>15</v>
       </c>
-      <c r="T46" s="23"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T46" s="1"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="22"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>33</v>
       </c>
@@ -3542,15 +3577,16 @@
       <c r="R47" s="18">
         <v>17</v>
       </c>
-      <c r="S47" s="29">
+      <c r="S47" s="19">
         <v>18</v>
       </c>
-      <c r="T47" s="23"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T47" s="1"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="22"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
@@ -3605,15 +3641,16 @@
       <c r="R48" s="18">
         <v>17</v>
       </c>
-      <c r="S48" s="29">
+      <c r="S48" s="19">
         <v>18</v>
       </c>
-      <c r="T48" s="23"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T48" s="1"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
@@ -3668,13 +3705,16 @@
       <c r="R49">
         <v>20</v>
       </c>
-      <c r="S49" s="27">
+      <c r="S49">
         <v>20</v>
       </c>
-      <c r="T49" s="23"/>
-      <c r="U49" s="24"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T49" s="1"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
@@ -3729,13 +3769,16 @@
       <c r="R50" s="19">
         <v>9</v>
       </c>
-      <c r="S50" s="27">
+      <c r="S50">
         <v>9</v>
       </c>
-      <c r="T50" s="23"/>
-      <c r="U50" s="24"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T50" s="1"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -3790,13 +3833,16 @@
       <c r="R51">
         <v>10</v>
       </c>
-      <c r="S51" s="27">
+      <c r="S51">
         <v>10</v>
       </c>
-      <c r="T51" s="23"/>
-      <c r="U51" s="24"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T51" s="1"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>38</v>
       </c>
@@ -3851,13 +3897,16 @@
       <c r="R52" s="19">
         <v>35</v>
       </c>
-      <c r="S52" s="27">
+      <c r="S52">
         <v>35</v>
       </c>
-      <c r="T52" s="23"/>
-      <c r="U52" s="24"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T52" s="1"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -3912,13 +3961,16 @@
       <c r="R53" s="19">
         <v>27</v>
       </c>
-      <c r="S53" s="27">
+      <c r="S53">
         <v>27</v>
       </c>
-      <c r="T53" s="23"/>
-      <c r="U53" s="24"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T53" s="1"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -3951,13 +4003,16 @@
       <c r="R54" s="19">
         <v>25</v>
       </c>
-      <c r="S54" s="30">
+      <c r="S54" s="18">
         <v>22</v>
       </c>
-      <c r="T54" s="23"/>
-      <c r="U54" s="24"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T54" s="1"/>
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+      <c r="X54" s="22"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>40</v>
       </c>
@@ -4012,12 +4067,16 @@
       <c r="R55">
         <v>27</v>
       </c>
-      <c r="S55" s="27">
+      <c r="S55">
         <v>27</v>
       </c>
-      <c r="T55" s="26"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T55" s="1"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+      <c r="X55" s="22"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -4026,9 +4085,12 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="T56" s="26"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -4037,9 +4099,12 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="T57" s="26"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -4060,13 +4125,70 @@
         <f>SUM(S42:S55,S39:S40,S33:S34,S2:S31,S37)</f>
         <v>4192</v>
       </c>
-      <c r="T58" s="26"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T59" s="26"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T60" s="26"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+    </row>
+    <row r="65" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+    </row>
+    <row r="66" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+    </row>
+    <row r="67" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+    </row>
+    <row r="68" spans="21:24" x14ac:dyDescent="0.25">
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C879E-A83F-409C-9F4F-2946EB3F1E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B13A6F-FADE-4AFC-823B-F008AD076A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="131">
   <si>
     <t>Имя файла</t>
   </si>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -598,7 +592,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1010,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,6 +1082,9 @@
       <c r="S1" t="s">
         <v>1</v>
       </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
@@ -1149,7 +1148,9 @@
       <c r="S2">
         <v>7</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="T2" s="25">
+        <v>7</v>
+      </c>
       <c r="U2" s="22"/>
       <c r="V2" s="22"/>
       <c r="W2" s="23"/>
@@ -1213,7 +1214,9 @@
       <c r="S3">
         <v>3</v>
       </c>
-      <c r="T3" s="1"/>
+      <c r="T3" s="25">
+        <v>3</v>
+      </c>
       <c r="U3" s="22"/>
       <c r="V3" s="22"/>
       <c r="W3" s="23"/>
@@ -1257,7 +1260,9 @@
       <c r="S4" s="19">
         <v>44</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="25">
+        <v>44</v>
+      </c>
       <c r="U4" s="22"/>
       <c r="V4" s="22"/>
       <c r="W4" s="23"/>
@@ -1321,7 +1326,9 @@
       <c r="S5" s="19">
         <v>24</v>
       </c>
-      <c r="T5" s="1"/>
+      <c r="T5" s="25">
+        <v>24</v>
+      </c>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="23"/>
@@ -1385,7 +1392,9 @@
       <c r="S6">
         <v>3</v>
       </c>
-      <c r="T6" s="1"/>
+      <c r="T6" s="25">
+        <v>3</v>
+      </c>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="23"/>
@@ -1449,7 +1458,9 @@
       <c r="S7">
         <v>8</v>
       </c>
-      <c r="T7" s="1"/>
+      <c r="T7" s="25">
+        <v>8</v>
+      </c>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="23"/>
@@ -1513,7 +1524,9 @@
       <c r="S8">
         <v>15</v>
       </c>
-      <c r="T8" s="1"/>
+      <c r="T8" s="25">
+        <v>15</v>
+      </c>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="23"/>
@@ -1577,7 +1590,9 @@
       <c r="S9">
         <v>83</v>
       </c>
-      <c r="T9" s="25"/>
+      <c r="T9" s="26">
+        <v>143</v>
+      </c>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="23"/>
@@ -1641,7 +1656,9 @@
       <c r="S10">
         <v>67</v>
       </c>
-      <c r="T10" s="1"/>
+      <c r="T10" s="26">
+        <v>123</v>
+      </c>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="23"/>
@@ -1705,7 +1722,9 @@
       <c r="S11">
         <v>413</v>
       </c>
-      <c r="T11" s="1"/>
+      <c r="T11" s="25">
+        <v>240</v>
+      </c>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="23"/>
@@ -1769,7 +1788,9 @@
       <c r="S12">
         <v>155</v>
       </c>
-      <c r="T12" s="1"/>
+      <c r="T12" s="26">
+        <v>206</v>
+      </c>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="23"/>
@@ -1833,7 +1854,9 @@
       <c r="S13">
         <v>147</v>
       </c>
-      <c r="T13" s="1"/>
+      <c r="T13" s="26">
+        <v>425</v>
+      </c>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
@@ -1897,7 +1920,9 @@
       <c r="S14">
         <v>334</v>
       </c>
-      <c r="T14" s="25"/>
+      <c r="T14" s="26">
+        <v>512</v>
+      </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="23"/>
@@ -1961,7 +1986,9 @@
       <c r="S15">
         <v>128</v>
       </c>
-      <c r="T15" s="1"/>
+      <c r="T15" s="26">
+        <v>163</v>
+      </c>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
@@ -2025,7 +2052,9 @@
       <c r="S16" s="18">
         <v>68</v>
       </c>
-      <c r="T16" s="25"/>
+      <c r="T16" s="27">
+        <v>48</v>
+      </c>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
       <c r="W16" s="23"/>
@@ -2089,7 +2118,9 @@
       <c r="S17">
         <v>59</v>
       </c>
-      <c r="T17" s="25"/>
+      <c r="T17" s="27">
+        <v>57</v>
+      </c>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
       <c r="W17" s="23"/>
@@ -2153,7 +2184,9 @@
       <c r="S18" s="19">
         <v>45</v>
       </c>
-      <c r="T18" s="25"/>
+      <c r="T18" s="26">
+        <v>53</v>
+      </c>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="23"/>
@@ -2211,7 +2244,9 @@
       <c r="S19">
         <v>47</v>
       </c>
-      <c r="T19" s="1"/>
+      <c r="T19" s="25">
+        <v>47</v>
+      </c>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
       <c r="W19" s="23"/>
@@ -2269,7 +2304,9 @@
       <c r="S20" s="19">
         <v>51</v>
       </c>
-      <c r="T20" s="1"/>
+      <c r="T20" s="25">
+        <v>51</v>
+      </c>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="23"/>
@@ -2333,7 +2370,9 @@
       <c r="S21">
         <v>49</v>
       </c>
-      <c r="T21" s="1"/>
+      <c r="T21" s="25">
+        <v>49</v>
+      </c>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
       <c r="W21" s="23"/>
@@ -2397,7 +2436,9 @@
       <c r="S22">
         <v>46</v>
       </c>
-      <c r="T22" s="1"/>
+      <c r="T22" s="25">
+        <v>46</v>
+      </c>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
       <c r="W22" s="23"/>
@@ -2461,7 +2502,9 @@
       <c r="S23">
         <v>96</v>
       </c>
-      <c r="T23" s="25"/>
+      <c r="T23" s="27">
+        <v>50</v>
+      </c>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="23"/>
@@ -2525,7 +2568,9 @@
       <c r="S24">
         <v>18</v>
       </c>
-      <c r="T24" s="1"/>
+      <c r="T24" s="25">
+        <v>18</v>
+      </c>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
       <c r="W24" s="23"/>
@@ -2589,7 +2634,9 @@
       <c r="S25">
         <v>15</v>
       </c>
-      <c r="T25" s="25"/>
+      <c r="T25" s="25">
+        <v>15</v>
+      </c>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
       <c r="W25" s="23"/>
@@ -2653,7 +2700,9 @@
       <c r="S26">
         <v>51</v>
       </c>
-      <c r="T26" s="1"/>
+      <c r="T26" s="27">
+        <v>39</v>
+      </c>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
       <c r="W26" s="23"/>
@@ -2717,7 +2766,9 @@
       <c r="S27">
         <v>32</v>
       </c>
-      <c r="T27" s="25"/>
+      <c r="T27" s="25">
+        <v>32</v>
+      </c>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
       <c r="W27" s="23"/>
@@ -2781,7 +2832,9 @@
       <c r="S28">
         <v>69</v>
       </c>
-      <c r="T28" s="1"/>
+      <c r="T28" s="27">
+        <v>41</v>
+      </c>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
       <c r="W28" s="23"/>
@@ -2845,7 +2898,9 @@
       <c r="S29" s="24">
         <v>593</v>
       </c>
-      <c r="T29" s="1"/>
+      <c r="T29" s="27">
+        <v>351</v>
+      </c>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="23"/>
@@ -2876,7 +2931,9 @@
       <c r="S30">
         <v>87</v>
       </c>
-      <c r="T30" s="25"/>
+      <c r="T30" s="26">
+        <v>147</v>
+      </c>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
       <c r="W30" s="23"/>
@@ -2907,7 +2964,9 @@
       <c r="S31">
         <v>241</v>
       </c>
-      <c r="T31" s="25"/>
+      <c r="T31" s="27">
+        <v>170</v>
+      </c>
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
       <c r="W31" s="23"/>
@@ -2935,7 +2994,9 @@
       <c r="S32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T32" s="1"/>
+      <c r="T32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="U32" s="23"/>
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
@@ -2957,7 +3018,9 @@
       <c r="S33" s="18">
         <v>349</v>
       </c>
-      <c r="T33" s="1"/>
+      <c r="T33" s="27">
+        <v>185</v>
+      </c>
       <c r="U33" s="22"/>
       <c r="V33" s="22"/>
       <c r="W33" s="23"/>
@@ -2979,7 +3042,9 @@
       <c r="S34">
         <v>131</v>
       </c>
-      <c r="T34" s="1"/>
+      <c r="T34" s="26">
+        <v>249</v>
+      </c>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
       <c r="W34" s="23"/>
@@ -3001,7 +3066,9 @@
       <c r="S35" s="19">
         <v>234</v>
       </c>
-      <c r="T35" s="1"/>
+      <c r="T35" s="27">
+        <v>114</v>
+      </c>
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
       <c r="W35" s="23"/>
@@ -3023,7 +3090,9 @@
       <c r="S36" s="18">
         <v>308</v>
       </c>
-      <c r="T36" s="1"/>
+      <c r="T36" s="27">
+        <v>217</v>
+      </c>
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
       <c r="W36" s="23"/>
@@ -3045,7 +3114,9 @@
       <c r="S37" s="18">
         <v>190</v>
       </c>
-      <c r="T37" s="1"/>
+      <c r="T37" s="26">
+        <v>203</v>
+      </c>
       <c r="U37" s="22"/>
       <c r="V37" s="22"/>
       <c r="W37" s="23"/>
@@ -3061,7 +3132,9 @@
       <c r="S38">
         <v>199</v>
       </c>
-      <c r="T38" s="1"/>
+      <c r="T38" s="27">
+        <v>196</v>
+      </c>
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
       <c r="W38" s="23"/>
@@ -3113,7 +3186,9 @@
       <c r="S39">
         <v>164</v>
       </c>
-      <c r="T39" s="25"/>
+      <c r="T39" s="27">
+        <v>125</v>
+      </c>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
       <c r="W39" s="23"/>
@@ -3177,7 +3252,9 @@
       <c r="S40">
         <v>102</v>
       </c>
-      <c r="T40" s="1"/>
+      <c r="T40" s="27">
+        <v>64</v>
+      </c>
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
       <c r="W40" s="23"/>
@@ -3196,7 +3273,9 @@
       <c r="S41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="U41" s="23"/>
       <c r="V41" s="23"/>
       <c r="W41" s="23"/>
@@ -3260,7 +3339,9 @@
       <c r="S42">
         <v>16</v>
       </c>
-      <c r="T42" s="1"/>
+      <c r="T42" s="25">
+        <v>16</v>
+      </c>
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
       <c r="W42" s="23"/>
@@ -3324,7 +3405,9 @@
       <c r="S43">
         <v>13</v>
       </c>
-      <c r="T43" s="25"/>
+      <c r="T43" s="26">
+        <v>14</v>
+      </c>
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
       <c r="W43" s="23"/>
@@ -3388,7 +3471,9 @@
       <c r="S44">
         <v>13</v>
       </c>
-      <c r="T44" s="25"/>
+      <c r="T44" s="26">
+        <v>14</v>
+      </c>
       <c r="U44" s="22"/>
       <c r="V44" s="22"/>
       <c r="W44" s="23"/>
@@ -3452,7 +3537,9 @@
       <c r="S45">
         <v>15</v>
       </c>
-      <c r="T45" s="1"/>
+      <c r="T45" s="26">
+        <v>16</v>
+      </c>
       <c r="U45" s="22"/>
       <c r="V45" s="22"/>
       <c r="W45" s="23"/>
@@ -3516,7 +3603,9 @@
       <c r="S46">
         <v>15</v>
       </c>
-      <c r="T46" s="1"/>
+      <c r="T46" s="26">
+        <v>16</v>
+      </c>
       <c r="U46" s="22"/>
       <c r="V46" s="22"/>
       <c r="W46" s="23"/>
@@ -3580,7 +3669,9 @@
       <c r="S47" s="19">
         <v>18</v>
       </c>
-      <c r="T47" s="1"/>
+      <c r="T47" s="26">
+        <v>19</v>
+      </c>
       <c r="U47" s="22"/>
       <c r="V47" s="22"/>
       <c r="W47" s="23"/>
@@ -3644,7 +3735,9 @@
       <c r="S48" s="19">
         <v>18</v>
       </c>
-      <c r="T48" s="1"/>
+      <c r="T48" s="26">
+        <v>19</v>
+      </c>
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
       <c r="W48" s="23"/>
@@ -3708,7 +3801,9 @@
       <c r="S49">
         <v>20</v>
       </c>
-      <c r="T49" s="1"/>
+      <c r="T49" s="25">
+        <v>20</v>
+      </c>
       <c r="U49" s="22"/>
       <c r="V49" s="22"/>
       <c r="W49" s="22"/>
@@ -3772,7 +3867,9 @@
       <c r="S50">
         <v>9</v>
       </c>
-      <c r="T50" s="1"/>
+      <c r="T50" s="25">
+        <v>9</v>
+      </c>
       <c r="U50" s="22"/>
       <c r="V50" s="22"/>
       <c r="W50" s="22"/>
@@ -3836,7 +3933,9 @@
       <c r="S51">
         <v>10</v>
       </c>
-      <c r="T51" s="1"/>
+      <c r="T51" s="25">
+        <v>10</v>
+      </c>
       <c r="U51" s="22"/>
       <c r="V51" s="22"/>
       <c r="W51" s="22"/>
@@ -3900,7 +3999,9 @@
       <c r="S52">
         <v>35</v>
       </c>
-      <c r="T52" s="1"/>
+      <c r="T52" s="25">
+        <v>35</v>
+      </c>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
@@ -3964,7 +4065,9 @@
       <c r="S53">
         <v>27</v>
       </c>
-      <c r="T53" s="1"/>
+      <c r="T53" s="25">
+        <v>27</v>
+      </c>
       <c r="U53" s="22"/>
       <c r="V53" s="22"/>
       <c r="W53" s="22"/>
@@ -4006,7 +4109,9 @@
       <c r="S54" s="18">
         <v>22</v>
       </c>
-      <c r="T54" s="1"/>
+      <c r="T54" s="25">
+        <v>22</v>
+      </c>
       <c r="U54" s="22"/>
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
@@ -4070,7 +4175,9 @@
       <c r="S55">
         <v>27</v>
       </c>
-      <c r="T55" s="1"/>
+      <c r="T55" s="25">
+        <v>27</v>
+      </c>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
@@ -4113,17 +4220,17 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="Q58">
-        <f>SUM(Q42:Q55,Q39:Q40,Q33:Q34,Q2:Q31,Q37)</f>
-        <v>3875</v>
-      </c>
       <c r="R58">
-        <f>SUM(R42:R55,R39:R40,R33:R34,R2:R31,R37)</f>
-        <v>3729</v>
+        <f>SUM(R2:R55) + 199</f>
+        <v>4524</v>
       </c>
       <c r="S58">
-        <f>SUM(S42:S55,S39:S40,S33:S34,S2:S31,S37)</f>
-        <v>4192</v>
+        <f>SUM(S2:S55)</f>
+        <v>4933</v>
+      </c>
+      <c r="T58">
+        <f>SUM(T2:T55)</f>
+        <v>4747</v>
       </c>
       <c r="U58" s="22"/>
       <c r="V58" s="22"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B13A6F-FADE-4AFC-823B-F008AD076A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F6E43-A5AB-4D85-8DD4-4262CA952BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
   <si>
     <t>Имя файла</t>
   </si>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +511,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -593,8 +599,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1006,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,7 +1090,9 @@
       <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="22"/>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
@@ -1148,10 +1155,12 @@
       <c r="S2">
         <v>7</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2">
         <v>7</v>
       </c>
-      <c r="U2" s="22"/>
+      <c r="U2" s="25">
+        <v>7</v>
+      </c>
       <c r="V2" s="22"/>
       <c r="W2" s="23"/>
       <c r="X2" s="22"/>
@@ -1214,10 +1223,12 @@
       <c r="S3">
         <v>3</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3">
         <v>3</v>
       </c>
-      <c r="U3" s="22"/>
+      <c r="U3" s="25">
+        <v>3</v>
+      </c>
       <c r="V3" s="22"/>
       <c r="W3" s="23"/>
       <c r="X3" s="22"/>
@@ -1260,10 +1271,12 @@
       <c r="S4" s="19">
         <v>44</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4">
         <v>44</v>
       </c>
-      <c r="U4" s="22"/>
+      <c r="U4" s="25">
+        <v>44</v>
+      </c>
       <c r="V4" s="22"/>
       <c r="W4" s="23"/>
       <c r="X4" s="22"/>
@@ -1326,10 +1339,12 @@
       <c r="S5" s="19">
         <v>24</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5">
         <v>24</v>
       </c>
-      <c r="U5" s="22"/>
+      <c r="U5" s="25">
+        <v>24</v>
+      </c>
       <c r="V5" s="22"/>
       <c r="W5" s="23"/>
       <c r="X5" s="22"/>
@@ -1392,10 +1407,12 @@
       <c r="S6">
         <v>3</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="U6" s="22"/>
+      <c r="U6" s="25">
+        <v>3</v>
+      </c>
       <c r="V6" s="22"/>
       <c r="W6" s="23"/>
       <c r="X6" s="22"/>
@@ -1458,10 +1475,12 @@
       <c r="S7">
         <v>8</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7">
         <v>8</v>
       </c>
-      <c r="U7" s="22"/>
+      <c r="U7" s="25">
+        <v>8</v>
+      </c>
       <c r="V7" s="22"/>
       <c r="W7" s="23"/>
       <c r="X7" s="22"/>
@@ -1524,10 +1543,12 @@
       <c r="S8">
         <v>15</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8">
         <v>15</v>
       </c>
-      <c r="U8" s="22"/>
+      <c r="U8" s="25">
+        <v>15</v>
+      </c>
       <c r="V8" s="22"/>
       <c r="W8" s="23"/>
       <c r="X8" s="22"/>
@@ -1590,10 +1611,12 @@
       <c r="S9">
         <v>83</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="19">
         <v>143</v>
       </c>
-      <c r="U9" s="22"/>
+      <c r="U9" s="25">
+        <v>143</v>
+      </c>
       <c r="V9" s="22"/>
       <c r="W9" s="23"/>
       <c r="X9" s="22"/>
@@ -1656,10 +1679,12 @@
       <c r="S10">
         <v>67</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="19">
         <v>123</v>
       </c>
-      <c r="U10" s="22"/>
+      <c r="U10" s="25">
+        <v>123</v>
+      </c>
       <c r="V10" s="22"/>
       <c r="W10" s="23"/>
       <c r="X10" s="22"/>
@@ -1722,10 +1747,12 @@
       <c r="S11">
         <v>413</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11">
         <v>240</v>
       </c>
-      <c r="U11" s="22"/>
+      <c r="U11" s="25">
+        <v>240</v>
+      </c>
       <c r="V11" s="22"/>
       <c r="W11" s="23"/>
       <c r="X11" s="22"/>
@@ -1788,10 +1815,12 @@
       <c r="S12">
         <v>155</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="19">
         <v>206</v>
       </c>
-      <c r="U12" s="22"/>
+      <c r="U12" s="25">
+        <v>206</v>
+      </c>
       <c r="V12" s="22"/>
       <c r="W12" s="23"/>
       <c r="X12" s="22"/>
@@ -1854,10 +1883,12 @@
       <c r="S13">
         <v>147</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="19">
         <v>425</v>
       </c>
-      <c r="U13" s="22"/>
+      <c r="U13" s="25">
+        <v>425</v>
+      </c>
       <c r="V13" s="22"/>
       <c r="W13" s="23"/>
       <c r="X13" s="22"/>
@@ -1920,10 +1951,12 @@
       <c r="S14">
         <v>334</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="19">
         <v>512</v>
       </c>
-      <c r="U14" s="22"/>
+      <c r="U14" s="25">
+        <v>512</v>
+      </c>
       <c r="V14" s="22"/>
       <c r="W14" s="23"/>
       <c r="X14" s="22"/>
@@ -1986,10 +2019,12 @@
       <c r="S15">
         <v>128</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="19">
         <v>163</v>
       </c>
-      <c r="U15" s="23"/>
+      <c r="U15" s="25">
+        <v>163</v>
+      </c>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
       <c r="X15" s="22"/>
@@ -2052,10 +2087,12 @@
       <c r="S16" s="18">
         <v>68</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="18">
         <v>48</v>
       </c>
-      <c r="U16" s="22"/>
+      <c r="U16" s="25">
+        <v>48</v>
+      </c>
       <c r="V16" s="22"/>
       <c r="W16" s="23"/>
       <c r="X16" s="22"/>
@@ -2118,10 +2155,12 @@
       <c r="S17">
         <v>59</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="18">
         <v>57</v>
       </c>
-      <c r="U17" s="22"/>
+      <c r="U17" s="25">
+        <v>57</v>
+      </c>
       <c r="V17" s="22"/>
       <c r="W17" s="23"/>
       <c r="X17" s="22"/>
@@ -2184,10 +2223,12 @@
       <c r="S18" s="19">
         <v>45</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18" s="19">
         <v>53</v>
       </c>
-      <c r="U18" s="22"/>
+      <c r="U18" s="25">
+        <v>53</v>
+      </c>
       <c r="V18" s="22"/>
       <c r="W18" s="23"/>
       <c r="X18" s="22"/>
@@ -2244,10 +2285,12 @@
       <c r="S19">
         <v>47</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19">
         <v>47</v>
       </c>
-      <c r="U19" s="22"/>
+      <c r="U19" s="25">
+        <v>47</v>
+      </c>
       <c r="V19" s="22"/>
       <c r="W19" s="23"/>
       <c r="X19" s="22"/>
@@ -2304,10 +2347,12 @@
       <c r="S20" s="19">
         <v>51</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20">
         <v>51</v>
       </c>
-      <c r="U20" s="22"/>
+      <c r="U20" s="25">
+        <v>51</v>
+      </c>
       <c r="V20" s="22"/>
       <c r="W20" s="23"/>
       <c r="X20" s="22"/>
@@ -2370,10 +2415,12 @@
       <c r="S21">
         <v>49</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21">
         <v>49</v>
       </c>
-      <c r="U21" s="22"/>
+      <c r="U21" s="25">
+        <v>49</v>
+      </c>
       <c r="V21" s="22"/>
       <c r="W21" s="23"/>
       <c r="X21" s="22"/>
@@ -2436,10 +2483,12 @@
       <c r="S22">
         <v>46</v>
       </c>
-      <c r="T22" s="25">
+      <c r="T22">
         <v>46</v>
       </c>
-      <c r="U22" s="22"/>
+      <c r="U22" s="25">
+        <v>46</v>
+      </c>
       <c r="V22" s="22"/>
       <c r="W22" s="23"/>
       <c r="X22" s="22"/>
@@ -2502,10 +2551,12 @@
       <c r="S23">
         <v>96</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="18">
         <v>50</v>
       </c>
-      <c r="U23" s="22"/>
+      <c r="U23" s="25">
+        <v>50</v>
+      </c>
       <c r="V23" s="22"/>
       <c r="W23" s="23"/>
       <c r="X23" s="22"/>
@@ -2568,10 +2619,12 @@
       <c r="S24">
         <v>18</v>
       </c>
-      <c r="T24" s="25">
+      <c r="T24">
         <v>18</v>
       </c>
-      <c r="U24" s="22"/>
+      <c r="U24" s="25">
+        <v>18</v>
+      </c>
       <c r="V24" s="22"/>
       <c r="W24" s="23"/>
       <c r="X24" s="22"/>
@@ -2634,10 +2687,12 @@
       <c r="S25">
         <v>15</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25">
         <v>15</v>
       </c>
-      <c r="U25" s="22"/>
+      <c r="U25" s="25">
+        <v>15</v>
+      </c>
       <c r="V25" s="22"/>
       <c r="W25" s="23"/>
       <c r="X25" s="22"/>
@@ -2700,10 +2755,12 @@
       <c r="S26">
         <v>51</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="18">
         <v>39</v>
       </c>
-      <c r="U26" s="22"/>
+      <c r="U26" s="25">
+        <v>39</v>
+      </c>
       <c r="V26" s="22"/>
       <c r="W26" s="23"/>
       <c r="X26" s="22"/>
@@ -2766,10 +2823,12 @@
       <c r="S27">
         <v>32</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27">
         <v>32</v>
       </c>
-      <c r="U27" s="22"/>
+      <c r="U27" s="25">
+        <v>32</v>
+      </c>
       <c r="V27" s="22"/>
       <c r="W27" s="23"/>
       <c r="X27" s="22"/>
@@ -2832,10 +2891,12 @@
       <c r="S28">
         <v>69</v>
       </c>
-      <c r="T28" s="27">
+      <c r="T28" s="18">
         <v>41</v>
       </c>
-      <c r="U28" s="22"/>
+      <c r="U28" s="25">
+        <v>41</v>
+      </c>
       <c r="V28" s="22"/>
       <c r="W28" s="23"/>
       <c r="X28" s="22"/>
@@ -2898,10 +2959,12 @@
       <c r="S29" s="24">
         <v>593</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T29" s="18">
         <v>351</v>
       </c>
-      <c r="U29" s="22"/>
+      <c r="U29" s="25">
+        <v>351</v>
+      </c>
       <c r="V29" s="22"/>
       <c r="W29" s="23"/>
       <c r="X29" s="22"/>
@@ -2931,10 +2994,12 @@
       <c r="S30">
         <v>87</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="19">
         <v>147</v>
       </c>
-      <c r="U30" s="22"/>
+      <c r="U30" s="25">
+        <v>147</v>
+      </c>
       <c r="V30" s="22"/>
       <c r="W30" s="23"/>
       <c r="X30" s="22"/>
@@ -2964,10 +3029,12 @@
       <c r="S31">
         <v>241</v>
       </c>
-      <c r="T31" s="27">
+      <c r="T31" s="18">
         <v>170</v>
       </c>
-      <c r="U31" s="22"/>
+      <c r="U31" s="25">
+        <v>170</v>
+      </c>
       <c r="V31" s="22"/>
       <c r="W31" s="23"/>
       <c r="X31" s="22"/>
@@ -2997,7 +3064,9 @@
       <c r="T32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U32" s="23"/>
+      <c r="U32" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
       <c r="X32" s="22"/>
@@ -3018,10 +3087,12 @@
       <c r="S33" s="18">
         <v>349</v>
       </c>
-      <c r="T33" s="27">
+      <c r="T33" s="18">
         <v>185</v>
       </c>
-      <c r="U33" s="22"/>
+      <c r="U33" s="25">
+        <v>185</v>
+      </c>
       <c r="V33" s="22"/>
       <c r="W33" s="23"/>
       <c r="X33" s="22"/>
@@ -3042,10 +3113,12 @@
       <c r="S34">
         <v>131</v>
       </c>
-      <c r="T34" s="26">
+      <c r="T34" s="19">
         <v>249</v>
       </c>
-      <c r="U34" s="22"/>
+      <c r="U34" s="25">
+        <v>249</v>
+      </c>
       <c r="V34" s="22"/>
       <c r="W34" s="23"/>
       <c r="X34" s="22"/>
@@ -3066,10 +3139,12 @@
       <c r="S35" s="19">
         <v>234</v>
       </c>
-      <c r="T35" s="27">
+      <c r="T35" s="18">
         <v>114</v>
       </c>
-      <c r="U35" s="22"/>
+      <c r="U35" s="26">
+        <v>100</v>
+      </c>
       <c r="V35" s="22"/>
       <c r="W35" s="23"/>
       <c r="X35" s="22"/>
@@ -3090,10 +3165,12 @@
       <c r="S36" s="18">
         <v>308</v>
       </c>
-      <c r="T36" s="27">
+      <c r="T36" s="18">
         <v>217</v>
       </c>
-      <c r="U36" s="22"/>
+      <c r="U36" s="26">
+        <v>279</v>
+      </c>
       <c r="V36" s="22"/>
       <c r="W36" s="23"/>
       <c r="X36" s="22"/>
@@ -3114,10 +3191,12 @@
       <c r="S37" s="18">
         <v>190</v>
       </c>
-      <c r="T37" s="26">
+      <c r="T37" s="19">
         <v>203</v>
       </c>
-      <c r="U37" s="22"/>
+      <c r="U37" s="25">
+        <v>203</v>
+      </c>
       <c r="V37" s="22"/>
       <c r="W37" s="23"/>
       <c r="X37" s="22"/>
@@ -3132,10 +3211,12 @@
       <c r="S38">
         <v>199</v>
       </c>
-      <c r="T38" s="27">
+      <c r="T38" s="18">
         <v>196</v>
       </c>
-      <c r="U38" s="22"/>
+      <c r="U38" s="25">
+        <v>196</v>
+      </c>
       <c r="V38" s="22"/>
       <c r="W38" s="23"/>
       <c r="X38" s="22"/>
@@ -3186,10 +3267,12 @@
       <c r="S39">
         <v>164</v>
       </c>
-      <c r="T39" s="27">
+      <c r="T39" s="18">
         <v>125</v>
       </c>
-      <c r="U39" s="22"/>
+      <c r="U39" s="25">
+        <v>125</v>
+      </c>
       <c r="V39" s="22"/>
       <c r="W39" s="23"/>
       <c r="X39" s="22"/>
@@ -3252,10 +3335,12 @@
       <c r="S40">
         <v>102</v>
       </c>
-      <c r="T40" s="27">
+      <c r="T40" s="18">
         <v>64</v>
       </c>
-      <c r="U40" s="22"/>
+      <c r="U40" s="25">
+        <v>64</v>
+      </c>
       <c r="V40" s="22"/>
       <c r="W40" s="23"/>
       <c r="X40" s="22"/>
@@ -3276,7 +3361,9 @@
       <c r="T41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U41" s="23"/>
+      <c r="U41" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="V41" s="23"/>
       <c r="W41" s="23"/>
       <c r="X41" s="22"/>
@@ -3339,10 +3426,12 @@
       <c r="S42">
         <v>16</v>
       </c>
-      <c r="T42" s="25">
+      <c r="T42">
         <v>16</v>
       </c>
-      <c r="U42" s="22"/>
+      <c r="U42" s="25">
+        <v>16</v>
+      </c>
       <c r="V42" s="22"/>
       <c r="W42" s="23"/>
       <c r="X42" s="22"/>
@@ -3405,10 +3494,12 @@
       <c r="S43">
         <v>13</v>
       </c>
-      <c r="T43" s="26">
+      <c r="T43" s="19">
         <v>14</v>
       </c>
-      <c r="U43" s="22"/>
+      <c r="U43" s="25">
+        <v>14</v>
+      </c>
       <c r="V43" s="22"/>
       <c r="W43" s="23"/>
       <c r="X43" s="22"/>
@@ -3471,10 +3562,12 @@
       <c r="S44">
         <v>13</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="19">
         <v>14</v>
       </c>
-      <c r="U44" s="22"/>
+      <c r="U44" s="25">
+        <v>14</v>
+      </c>
       <c r="V44" s="22"/>
       <c r="W44" s="23"/>
       <c r="X44" s="22"/>
@@ -3537,10 +3630,12 @@
       <c r="S45">
         <v>15</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T45" s="19">
         <v>16</v>
       </c>
-      <c r="U45" s="22"/>
+      <c r="U45" s="25">
+        <v>16</v>
+      </c>
       <c r="V45" s="22"/>
       <c r="W45" s="23"/>
       <c r="X45" s="22"/>
@@ -3603,10 +3698,12 @@
       <c r="S46">
         <v>15</v>
       </c>
-      <c r="T46" s="26">
+      <c r="T46" s="19">
         <v>16</v>
       </c>
-      <c r="U46" s="22"/>
+      <c r="U46" s="25">
+        <v>16</v>
+      </c>
       <c r="V46" s="22"/>
       <c r="W46" s="23"/>
       <c r="X46" s="22"/>
@@ -3669,10 +3766,12 @@
       <c r="S47" s="19">
         <v>18</v>
       </c>
-      <c r="T47" s="26">
+      <c r="T47" s="19">
         <v>19</v>
       </c>
-      <c r="U47" s="22"/>
+      <c r="U47" s="25">
+        <v>19</v>
+      </c>
       <c r="V47" s="22"/>
       <c r="W47" s="23"/>
       <c r="X47" s="22"/>
@@ -3735,10 +3834,12 @@
       <c r="S48" s="19">
         <v>18</v>
       </c>
-      <c r="T48" s="26">
+      <c r="T48" s="19">
         <v>19</v>
       </c>
-      <c r="U48" s="22"/>
+      <c r="U48" s="25">
+        <v>19</v>
+      </c>
       <c r="V48" s="22"/>
       <c r="W48" s="23"/>
       <c r="X48" s="22"/>
@@ -3801,10 +3902,12 @@
       <c r="S49">
         <v>20</v>
       </c>
-      <c r="T49" s="25">
+      <c r="T49">
         <v>20</v>
       </c>
-      <c r="U49" s="22"/>
+      <c r="U49" s="25">
+        <v>20</v>
+      </c>
       <c r="V49" s="22"/>
       <c r="W49" s="22"/>
       <c r="X49" s="22"/>
@@ -3867,10 +3970,12 @@
       <c r="S50">
         <v>9</v>
       </c>
-      <c r="T50" s="25">
+      <c r="T50">
         <v>9</v>
       </c>
-      <c r="U50" s="22"/>
+      <c r="U50" s="25">
+        <v>9</v>
+      </c>
       <c r="V50" s="22"/>
       <c r="W50" s="22"/>
       <c r="X50" s="22"/>
@@ -3933,10 +4038,12 @@
       <c r="S51">
         <v>10</v>
       </c>
-      <c r="T51" s="25">
+      <c r="T51">
         <v>10</v>
       </c>
-      <c r="U51" s="22"/>
+      <c r="U51" s="25">
+        <v>10</v>
+      </c>
       <c r="V51" s="22"/>
       <c r="W51" s="22"/>
       <c r="X51" s="22"/>
@@ -3999,10 +4106,12 @@
       <c r="S52">
         <v>35</v>
       </c>
-      <c r="T52" s="25">
+      <c r="T52">
         <v>35</v>
       </c>
-      <c r="U52" s="22"/>
+      <c r="U52" s="25">
+        <v>35</v>
+      </c>
       <c r="V52" s="22"/>
       <c r="W52" s="22"/>
       <c r="X52" s="22"/>
@@ -4065,10 +4174,12 @@
       <c r="S53">
         <v>27</v>
       </c>
-      <c r="T53" s="25">
+      <c r="T53">
         <v>27</v>
       </c>
-      <c r="U53" s="22"/>
+      <c r="U53" s="25">
+        <v>27</v>
+      </c>
       <c r="V53" s="22"/>
       <c r="W53" s="22"/>
       <c r="X53" s="22"/>
@@ -4109,10 +4220,12 @@
       <c r="S54" s="18">
         <v>22</v>
       </c>
-      <c r="T54" s="25">
+      <c r="T54">
         <v>22</v>
       </c>
-      <c r="U54" s="22"/>
+      <c r="U54" s="25">
+        <v>22</v>
+      </c>
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
       <c r="X54" s="22"/>
@@ -4175,10 +4288,12 @@
       <c r="S55">
         <v>27</v>
       </c>
-      <c r="T55" s="25">
+      <c r="T55">
         <v>27</v>
       </c>
-      <c r="U55" s="22"/>
+      <c r="U55" s="25">
+        <v>27</v>
+      </c>
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
@@ -4192,7 +4307,6 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="U56" s="22"/>
       <c r="V56" s="22"/>
       <c r="W56" s="22"/>
       <c r="X56" s="22"/>
@@ -4206,7 +4320,6 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="U57" s="22"/>
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
       <c r="X57" s="22"/>
@@ -4232,67 +4345,60 @@
         <f>SUM(T2:T55)</f>
         <v>4747</v>
       </c>
-      <c r="U58" s="22"/>
+      <c r="U58">
+        <f>SUM(U2:U55)</f>
+        <v>4795</v>
+      </c>
       <c r="V58" s="22"/>
       <c r="W58" s="22"/>
       <c r="X58" s="22"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U59" s="22"/>
       <c r="V59" s="22"/>
       <c r="W59" s="22"/>
       <c r="X59" s="22"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U60" s="22"/>
       <c r="V60" s="22"/>
       <c r="W60" s="22"/>
       <c r="X60" s="22"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U61" s="22"/>
       <c r="V61" s="22"/>
       <c r="W61" s="22"/>
       <c r="X61" s="22"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U62" s="22"/>
       <c r="V62" s="22"/>
       <c r="W62" s="22"/>
       <c r="X62" s="22"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U63" s="22"/>
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
       <c r="X63" s="22"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="U64" s="22"/>
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
       <c r="X64" s="22"/>
     </row>
-    <row r="65" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U65" s="22"/>
+    <row r="65" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
       <c r="X65" s="22"/>
     </row>
-    <row r="66" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U66" s="22"/>
+    <row r="66" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V66" s="22"/>
       <c r="W66" s="22"/>
       <c r="X66" s="22"/>
     </row>
-    <row r="67" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U67" s="22"/>
+    <row r="67" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V67" s="22"/>
       <c r="W67" s="22"/>
       <c r="X67" s="22"/>
     </row>
-    <row r="68" spans="21:24" x14ac:dyDescent="0.25">
-      <c r="U68" s="22"/>
+    <row r="68" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V68" s="22"/>
       <c r="W68" s="22"/>
       <c r="X68" s="22"/>

--- a/Information/Изменение результатов.xlsx
+++ b/Information/Изменение результатов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\MAPF_System\Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F6E43-A5AB-4D85-8DD4-4262CA952BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC26C81-6868-40FC-9D11-E47C0120705F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="599" xr2:uid="{0BBE610F-FD71-401D-9DCE-6AF9F6A4B4C0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="131">
   <si>
     <t>Имя файла</t>
   </si>
@@ -459,7 +459,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +511,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -596,10 +590,15 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1011,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView tabSelected="1" topLeftCell="J31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,8 +1092,10 @@
       <c r="U1" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="V1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="9"/>
       <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -1158,11 +1159,13 @@
       <c r="T2">
         <v>7</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2">
         <v>7</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23"/>
+      <c r="V2" s="27">
+        <v>6</v>
+      </c>
+      <c r="W2" s="31"/>
       <c r="X2" s="22"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -1226,11 +1229,13 @@
       <c r="T3">
         <v>3</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3">
         <v>3</v>
       </c>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
+      <c r="V3" s="26">
+        <v>3</v>
+      </c>
+      <c r="W3" s="31"/>
       <c r="X3" s="22"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -1274,11 +1279,13 @@
       <c r="T4">
         <v>44</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4">
         <v>44</v>
       </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="23"/>
+      <c r="V4" s="25">
+        <v>44</v>
+      </c>
+      <c r="W4" s="31"/>
       <c r="X4" s="22"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -1342,11 +1349,13 @@
       <c r="T5">
         <v>24</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5">
         <v>24</v>
       </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
+      <c r="V5" s="26">
+        <v>24</v>
+      </c>
+      <c r="W5" s="31"/>
       <c r="X5" s="22"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -1410,11 +1419,13 @@
       <c r="T6">
         <v>3</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
+      <c r="V6" s="25">
+        <v>3</v>
+      </c>
+      <c r="W6" s="31"/>
       <c r="X6" s="22"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -1478,11 +1489,13 @@
       <c r="T7">
         <v>8</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7">
         <v>8</v>
       </c>
-      <c r="V7" s="22"/>
-      <c r="W7" s="23"/>
+      <c r="V7" s="26">
+        <v>8</v>
+      </c>
+      <c r="W7" s="31"/>
       <c r="X7" s="22"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -1546,11 +1559,13 @@
       <c r="T8">
         <v>15</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8">
         <v>15</v>
       </c>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
+      <c r="V8" s="25">
+        <v>15</v>
+      </c>
+      <c r="W8" s="31"/>
       <c r="X8" s="22"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1614,11 +1629,13 @@
       <c r="T9" s="19">
         <v>143</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9">
         <v>143</v>
       </c>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
+      <c r="V9" s="26">
+        <v>143</v>
+      </c>
+      <c r="W9" s="31"/>
       <c r="X9" s="22"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1682,11 +1699,13 @@
       <c r="T10" s="19">
         <v>123</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10">
         <v>123</v>
       </c>
-      <c r="V10" s="22"/>
-      <c r="W10" s="23"/>
+      <c r="V10" s="25">
+        <v>123</v>
+      </c>
+      <c r="W10" s="31"/>
       <c r="X10" s="22"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -1750,11 +1769,13 @@
       <c r="T11">
         <v>240</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11">
         <v>240</v>
       </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="23"/>
+      <c r="V11" s="26">
+        <v>240</v>
+      </c>
+      <c r="W11" s="31"/>
       <c r="X11" s="22"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1818,11 +1839,13 @@
       <c r="T12" s="19">
         <v>206</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12">
         <v>206</v>
       </c>
-      <c r="V12" s="22"/>
-      <c r="W12" s="23"/>
+      <c r="V12" s="25">
+        <v>206</v>
+      </c>
+      <c r="W12" s="31"/>
       <c r="X12" s="22"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -1886,11 +1909,13 @@
       <c r="T13" s="19">
         <v>425</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13">
         <v>425</v>
       </c>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
+      <c r="V13" s="26">
+        <v>425</v>
+      </c>
+      <c r="W13" s="31"/>
       <c r="X13" s="22"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1954,11 +1979,13 @@
       <c r="T14" s="19">
         <v>512</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14">
         <v>512</v>
       </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
+      <c r="V14" s="27">
+        <v>478</v>
+      </c>
+      <c r="W14" s="31"/>
       <c r="X14" s="22"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -2022,11 +2049,13 @@
       <c r="T15" s="19">
         <v>163</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15">
         <v>163</v>
       </c>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="V15" s="26">
+        <v>163</v>
+      </c>
+      <c r="W15" s="31"/>
       <c r="X15" s="22"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -2090,11 +2119,13 @@
       <c r="T16" s="18">
         <v>48</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16">
         <v>48</v>
       </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="23"/>
+      <c r="V16" s="27">
+        <v>45</v>
+      </c>
+      <c r="W16" s="31"/>
       <c r="X16" s="22"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -2158,11 +2189,13 @@
       <c r="T17" s="18">
         <v>57</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17">
         <v>57</v>
       </c>
-      <c r="V17" s="22"/>
-      <c r="W17" s="23"/>
+      <c r="V17" s="29">
+        <v>59</v>
+      </c>
+      <c r="W17" s="31"/>
       <c r="X17" s="22"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -2226,11 +2259,13 @@
       <c r="T18" s="19">
         <v>53</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18">
         <v>53</v>
       </c>
-      <c r="V18" s="22"/>
-      <c r="W18" s="23"/>
+      <c r="V18" s="27">
+        <v>37</v>
+      </c>
+      <c r="W18" s="31"/>
       <c r="X18" s="22"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -2288,11 +2323,13 @@
       <c r="T19">
         <v>47</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19">
         <v>47</v>
       </c>
-      <c r="V19" s="22"/>
-      <c r="W19" s="23"/>
+      <c r="V19" s="26">
+        <v>47</v>
+      </c>
+      <c r="W19" s="31"/>
       <c r="X19" s="22"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -2350,11 +2387,13 @@
       <c r="T20">
         <v>51</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20">
         <v>51</v>
       </c>
-      <c r="V20" s="22"/>
-      <c r="W20" s="23"/>
+      <c r="V20" s="25">
+        <v>51</v>
+      </c>
+      <c r="W20" s="31"/>
       <c r="X20" s="22"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -2418,11 +2457,13 @@
       <c r="T21">
         <v>49</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21">
         <v>49</v>
       </c>
-      <c r="V21" s="22"/>
-      <c r="W21" s="23"/>
+      <c r="V21" s="26">
+        <v>49</v>
+      </c>
+      <c r="W21" s="31"/>
       <c r="X21" s="22"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
@@ -2486,11 +2527,13 @@
       <c r="T22">
         <v>46</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22">
         <v>46</v>
       </c>
-      <c r="V22" s="22"/>
-      <c r="W22" s="23"/>
+      <c r="V22" s="25">
+        <v>46</v>
+      </c>
+      <c r="W22" s="31"/>
       <c r="X22" s="22"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -2554,11 +2597,13 @@
       <c r="T23" s="18">
         <v>50</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23">
         <v>50</v>
       </c>
-      <c r="V23" s="22"/>
-      <c r="W23" s="23"/>
+      <c r="V23" s="26">
+        <v>50</v>
+      </c>
+      <c r="W23" s="31"/>
       <c r="X23" s="22"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
@@ -2622,11 +2667,13 @@
       <c r="T24">
         <v>18</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24">
         <v>18</v>
       </c>
-      <c r="V24" s="22"/>
-      <c r="W24" s="23"/>
+      <c r="V24" s="25">
+        <v>28</v>
+      </c>
+      <c r="W24" s="31"/>
       <c r="X24" s="22"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
@@ -2690,11 +2737,13 @@
       <c r="T25">
         <v>15</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25">
         <v>15</v>
       </c>
-      <c r="V25" s="22"/>
-      <c r="W25" s="23"/>
+      <c r="V25" s="28">
+        <v>12</v>
+      </c>
+      <c r="W25" s="31"/>
       <c r="X25" s="22"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -2758,11 +2807,13 @@
       <c r="T26" s="18">
         <v>39</v>
       </c>
-      <c r="U26" s="25">
+      <c r="U26">
         <v>39</v>
       </c>
-      <c r="V26" s="22"/>
-      <c r="W26" s="23"/>
+      <c r="V26" s="27">
+        <v>31</v>
+      </c>
+      <c r="W26" s="31"/>
       <c r="X26" s="22"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -2826,11 +2877,13 @@
       <c r="T27">
         <v>32</v>
       </c>
-      <c r="U27" s="25">
+      <c r="U27">
         <v>32</v>
       </c>
-      <c r="V27" s="22"/>
-      <c r="W27" s="23"/>
+      <c r="V27" s="28">
+        <v>20</v>
+      </c>
+      <c r="W27" s="31"/>
       <c r="X27" s="22"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -2894,11 +2947,13 @@
       <c r="T28" s="18">
         <v>41</v>
       </c>
-      <c r="U28" s="25">
+      <c r="U28">
         <v>41</v>
       </c>
-      <c r="V28" s="22"/>
-      <c r="W28" s="23"/>
+      <c r="V28" s="27">
+        <v>38</v>
+      </c>
+      <c r="W28" s="31"/>
       <c r="X28" s="22"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -2956,17 +3011,19 @@
       <c r="R29" s="18">
         <v>61</v>
       </c>
-      <c r="S29" s="24">
+      <c r="S29" s="23">
         <v>593</v>
       </c>
       <c r="T29" s="18">
         <v>351</v>
       </c>
-      <c r="U29" s="25">
+      <c r="U29">
         <v>351</v>
       </c>
-      <c r="V29" s="22"/>
-      <c r="W29" s="23"/>
+      <c r="V29" s="28">
+        <v>197</v>
+      </c>
+      <c r="W29" s="31"/>
       <c r="X29" s="22"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
@@ -2997,11 +3054,13 @@
       <c r="T30" s="19">
         <v>147</v>
       </c>
-      <c r="U30" s="25">
+      <c r="U30">
         <v>147</v>
       </c>
-      <c r="V30" s="22"/>
-      <c r="W30" s="23"/>
+      <c r="V30" s="25">
+        <v>147</v>
+      </c>
+      <c r="W30" s="31"/>
       <c r="X30" s="22"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -3032,11 +3091,13 @@
       <c r="T31" s="18">
         <v>170</v>
       </c>
-      <c r="U31" s="25">
+      <c r="U31">
         <v>170</v>
       </c>
-      <c r="V31" s="22"/>
-      <c r="W31" s="23"/>
+      <c r="V31" s="28">
+        <v>142</v>
+      </c>
+      <c r="W31" s="31"/>
       <c r="X31" s="22"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -3067,8 +3128,10 @@
       <c r="U32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
+      <c r="V32" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" s="1"/>
       <c r="X32" s="22"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
@@ -3090,11 +3153,13 @@
       <c r="T33" s="18">
         <v>185</v>
       </c>
-      <c r="U33" s="25">
+      <c r="U33">
         <v>185</v>
       </c>
-      <c r="V33" s="22"/>
-      <c r="W33" s="23"/>
+      <c r="V33" s="29">
+        <v>261</v>
+      </c>
+      <c r="W33" s="31"/>
       <c r="X33" s="22"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
@@ -3116,11 +3181,13 @@
       <c r="T34" s="19">
         <v>249</v>
       </c>
-      <c r="U34" s="25">
+      <c r="U34">
         <v>249</v>
       </c>
-      <c r="V34" s="22"/>
-      <c r="W34" s="23"/>
+      <c r="V34" s="30">
+        <v>270</v>
+      </c>
+      <c r="W34" s="31"/>
       <c r="X34" s="22"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
@@ -3142,11 +3209,13 @@
       <c r="T35" s="18">
         <v>114</v>
       </c>
-      <c r="U35" s="26">
+      <c r="U35" s="18">
         <v>100</v>
       </c>
-      <c r="V35" s="22"/>
-      <c r="W35" s="23"/>
+      <c r="V35" s="26">
+        <v>100</v>
+      </c>
+      <c r="W35" s="31"/>
       <c r="X35" s="22"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
@@ -3168,11 +3237,13 @@
       <c r="T36" s="18">
         <v>217</v>
       </c>
-      <c r="U36" s="26">
+      <c r="U36" s="19">
         <v>279</v>
       </c>
-      <c r="V36" s="22"/>
-      <c r="W36" s="23"/>
+      <c r="V36" s="25">
+        <v>279</v>
+      </c>
+      <c r="W36" s="31"/>
       <c r="X36" s="22"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
@@ -3194,11 +3265,13 @@
       <c r="T37" s="19">
         <v>203</v>
       </c>
-      <c r="U37" s="25">
+      <c r="U37">
         <v>203</v>
       </c>
-      <c r="V37" s="22"/>
-      <c r="W37" s="23"/>
+      <c r="V37" s="28">
+        <v>138</v>
+      </c>
+      <c r="W37" s="31"/>
       <c r="X37" s="22"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
@@ -3214,11 +3287,13 @@
       <c r="T38" s="18">
         <v>196</v>
       </c>
-      <c r="U38" s="25">
+      <c r="U38">
         <v>196</v>
       </c>
-      <c r="V38" s="22"/>
-      <c r="W38" s="23"/>
+      <c r="V38" s="25">
+        <v>196</v>
+      </c>
+      <c r="W38" s="31"/>
       <c r="X38" s="22"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
@@ -3270,11 +3345,13 @@
       <c r="T39" s="18">
         <v>125</v>
       </c>
-      <c r="U39" s="25">
+      <c r="U39">
         <v>125</v>
       </c>
-      <c r="V39" s="22"/>
-      <c r="W39" s="23"/>
+      <c r="V39" s="28">
+        <v>104</v>
+      </c>
+      <c r="W39" s="31"/>
       <c r="X39" s="22"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
@@ -3338,11 +3415,13 @@
       <c r="T40" s="18">
         <v>64</v>
       </c>
-      <c r="U40" s="25">
+      <c r="U40">
         <v>64</v>
       </c>
-      <c r="V40" s="22"/>
-      <c r="W40" s="23"/>
+      <c r="V40" s="25">
+        <v>64</v>
+      </c>
+      <c r="W40" s="31"/>
       <c r="X40" s="22"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
@@ -3364,8 +3443,10 @@
       <c r="U41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V41" s="23"/>
-      <c r="W41" s="23"/>
+      <c r="V41" s="28">
+        <v>20</v>
+      </c>
+      <c r="W41" s="31"/>
       <c r="X41" s="22"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
@@ -3429,11 +3510,13 @@
       <c r="T42">
         <v>16</v>
       </c>
-      <c r="U42" s="25">
+      <c r="U42">
         <v>16</v>
       </c>
-      <c r="V42" s="22"/>
-      <c r="W42" s="23"/>
+      <c r="V42" s="25">
+        <v>16</v>
+      </c>
+      <c r="W42" s="31"/>
       <c r="X42" s="22"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
@@ -3497,11 +3580,13 @@
       <c r="T43" s="19">
         <v>14</v>
       </c>
-      <c r="U43" s="25">
+      <c r="U43">
         <v>14</v>
       </c>
-      <c r="V43" s="22"/>
-      <c r="W43" s="23"/>
+      <c r="V43" s="26">
+        <v>14</v>
+      </c>
+      <c r="W43" s="31"/>
       <c r="X43" s="22"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
@@ -3565,11 +3650,13 @@
       <c r="T44" s="19">
         <v>14</v>
       </c>
-      <c r="U44" s="25">
+      <c r="U44">
         <v>14</v>
       </c>
-      <c r="V44" s="22"/>
-      <c r="W44" s="23"/>
+      <c r="V44" s="25">
+        <v>14</v>
+      </c>
+      <c r="W44" s="31"/>
       <c r="X44" s="22"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
@@ -3633,11 +3720,13 @@
       <c r="T45" s="19">
         <v>16</v>
       </c>
-      <c r="U45" s="25">
+      <c r="U45">
         <v>16</v>
       </c>
-      <c r="V45" s="22"/>
-      <c r="W45" s="23"/>
+      <c r="V45" s="26">
+        <v>16</v>
+      </c>
+      <c r="W45" s="31"/>
       <c r="X45" s="22"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
@@ -3701,11 +3790,13 @@
       <c r="T46" s="19">
         <v>16</v>
       </c>
-      <c r="U46" s="25">
+      <c r="U46">
         <v>16</v>
       </c>
-      <c r="V46" s="22"/>
-      <c r="W46" s="23"/>
+      <c r="V46" s="25">
+        <v>16</v>
+      </c>
+      <c r="W46" s="31"/>
       <c r="X46" s="22"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
@@ -3769,11 +3860,13 @@
       <c r="T47" s="19">
         <v>19</v>
       </c>
-      <c r="U47" s="25">
+      <c r="U47">
         <v>19</v>
       </c>
-      <c r="V47" s="22"/>
-      <c r="W47" s="23"/>
+      <c r="V47" s="26">
+        <v>19</v>
+      </c>
+      <c r="W47" s="31"/>
       <c r="X47" s="22"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
@@ -3837,11 +3930,13 @@
       <c r="T48" s="19">
         <v>19</v>
       </c>
-      <c r="U48" s="25">
+      <c r="U48">
         <v>19</v>
       </c>
-      <c r="V48" s="22"/>
-      <c r="W48" s="23"/>
+      <c r="V48" s="25">
+        <v>19</v>
+      </c>
+      <c r="W48" s="31"/>
       <c r="X48" s="22"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
@@ -3905,11 +4000,13 @@
       <c r="T49">
         <v>20</v>
       </c>
-      <c r="U49" s="25">
+      <c r="U49">
         <v>20</v>
       </c>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
+      <c r="V49" s="26">
+        <v>20</v>
+      </c>
+      <c r="W49" s="31"/>
       <c r="X49" s="22"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -3973,11 +4070,13 @@
       <c r="T50">
         <v>9</v>
       </c>
-      <c r="U50" s="25">
+      <c r="U50">
         <v>9</v>
       </c>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
+      <c r="V50" s="25">
+        <v>9</v>
+      </c>
+      <c r="W50" s="31"/>
       <c r="X50" s="22"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
@@ -4041,11 +4140,13 @@
       <c r="T51">
         <v>10</v>
       </c>
-      <c r="U51" s="25">
+      <c r="U51">
         <v>10</v>
       </c>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
+      <c r="V51" s="26">
+        <v>10</v>
+      </c>
+      <c r="W51" s="31"/>
       <c r="X51" s="22"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
@@ -4109,11 +4210,13 @@
       <c r="T52">
         <v>35</v>
       </c>
-      <c r="U52" s="25">
+      <c r="U52">
         <v>35</v>
       </c>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
+      <c r="V52" s="27">
+        <v>33</v>
+      </c>
+      <c r="W52" s="31"/>
       <c r="X52" s="22"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
@@ -4177,11 +4280,13 @@
       <c r="T53">
         <v>27</v>
       </c>
-      <c r="U53" s="25">
+      <c r="U53">
         <v>27</v>
       </c>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
+      <c r="V53" s="29">
+        <v>35</v>
+      </c>
+      <c r="W53" s="31"/>
       <c r="X53" s="22"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
@@ -4223,11 +4328,13 @@
       <c r="T54">
         <v>22</v>
       </c>
-      <c r="U54" s="25">
+      <c r="U54">
         <v>22</v>
       </c>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
+      <c r="V54" s="25">
+        <v>22</v>
+      </c>
+      <c r="W54" s="31"/>
       <c r="X54" s="22"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
@@ -4291,11 +4398,13 @@
       <c r="T55">
         <v>27</v>
       </c>
-      <c r="U55" s="25">
+      <c r="U55">
         <v>27</v>
       </c>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
+      <c r="V55" s="26">
+        <v>27</v>
+      </c>
+      <c r="W55" s="31"/>
       <c r="X55" s="22"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
@@ -4308,7 +4417,6 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
       <c r="X56" s="22"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
@@ -4349,8 +4457,10 @@
         <f>SUM(U2:U55)</f>
         <v>4795</v>
       </c>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
+      <c r="V58">
+        <f>SUM(V2:V55)</f>
+        <v>4582</v>
+      </c>
       <c r="X58" s="22"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
